--- a/Experiment Tracking Sheet.xlsx
+++ b/Experiment Tracking Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\DIssertation\Ticket5ellingSystem-Exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F49C0C-17FA-40E0-BA35-779DAED8FBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE995B8-D9F2-4BDB-A2EF-14E7ADBA5004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5880" windowWidth="23256" windowHeight="12456" xr2:uid="{20830222-D529-4FF8-BDA5-3DAE3BD48417}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Exp #</t>
   </si>
@@ -406,6 +406,576 @@
   </si>
   <si>
     <t>All output are logged</t>
+  </si>
+  <si>
+    <t>Now we will focus on the client program. Based on the outline that you generated for the client program. Please implement steps 1 to 3 in Python to create the base for the client: 1. Initialize the Client Set up initial variables: Initialize a user balance of $4,000 and a local ticket database capable of storing up to 15 tickets. Connect to the server: Use the provided hostname and port to establish a TCP connection with the server. 2. Handle Concurrent Operations Set up threading or multiprocessing: Since the client needs to handle automated requests to the server and listen to another client simultaneously, use a separate thread or process. This allows the client to manage TCP requests/responses with the server while also operating a UDP server to handle incoming SCALP requests. UDP socket setup: Establish a UDP socket on the port number given to the client program +1. This will be used to listen to SCALP requests from the other client. 3. Automated Buy/Sell Requests to Server • Send BUY requests: For each of the 15 transactions, send a BUY request to the server with the current user balance. Depending on the server's response, the client will: o Ticket and price received: Update the local database with the new ticket, adjust the user balance, and continue to the next request. o NOFUNDS: Choose a ticket to sell, send a SELL request to the server, update the user balance with the received funds, and remove the ticket from the local database. o SOLDOUT: Transition to buying tickets from the other client (scalper) using SCALP requests. Please incorporate logging in the program. Make sure to log every output that is printed out on the screen, any errors, any exceptions, any messages received and sent. Save the log in the format of &lt;program_name.log&gt;</t>
+  </si>
+  <si>
+    <t>0/client-0-6.py</t>
+  </si>
+  <si>
+    <t>To implement the client program based on your requirements and incorporate logging for comprehensive tracking of all activities, here’s a detailed Python script. This script sets up the client, handles concurrent operations through threading, manages automated buy/sell requests to the server, and logs all significant events and interactions:
+import socket
+import threading
+import random
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.INFO,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),  # Log file name
+                        logging.StreamHandler()  # Log to stdout
+                    ])
+# Initialize client variables
+user_balance = 4000
+ticket_db = {}  # Local ticket database
+hostname = 'localhost'
+tcp_port = 12345
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener():
+    """ Listens for messages on the UDP socket """
+    udp_sock = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_sock.bind((hostname, udp_port))
+    while True:
+        try:
+            data, addr = udp_sock.recvfrom(1024)
+            message = data.decode()
+            logging.info(f"Received SCALP request: {message} from {addr}")
+            # Process SCALP request here (not implemented in this snippet)
+        except Exception as e:
+            logging.error(f"UDP Listener error: {e}")
+            break
+    udp_sock.close()
+def send_requests_to_server(tcp_socket):
+    """ Sends automated BUY requests to the server and handles responses """
+    global user_balance
+    for _ in range(15):  # Simulate 15 transactions
+        try:
+            request = f"BUY {user_balance}"
+            tcp_socket.sendall(request.encode())
+            logging.info(f"Sent to server: {request}")
+            response = tcp_socket.recv(1024).decode()
+            logging.info(f"Received from server: {response}")
+            if response.startswith('NOFUNDS'):
+                # Select a ticket to sell (simplified: select the first one)
+                if ticket_db:
+                    ticket_number, ticket_price = next(iter(ticket_db.items()))
+                    sell_request = f"SELL {ticket_number}"
+                    tcp_socket.sendall(sell_request.encode())
+                    user_balance += ticket_price
+                    del ticket_db[ticket_number]
+                    logging.info(f"Sold ticket {ticket_number} back to server, updated balance: {user_balance}")
+            elif response.startswith('SOLDOUT'):
+                # Process buying tickets from scalper here (not implemented)
+                pass
+            else:
+                ticket_number, price = response.split()
+                ticket_db[ticket_number] = int(price)
+                user_balance -= int(price)
+                logging.info(f"Bought ticket {ticket_number} for ${price}, updated balance: {user_balance}")
+        except Exception as e:
+            logging.error(f"Error during transaction: {e}")
+            break
+    tcp_socket.close()
+def start_client():
+    # Connect to the server
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    # Set up UDP listener in a separate thread
+    udp_thread = threading.Thread(target=udp_listener)
+    udp_thread.start()
+    # Send requests to the server
+    send_requests_to_server(tcp_socket)
+    udp_thread.join()
+    logging.info("Client operations completed.")
+if __name__ == "__main__":
+    start_client()
+Key Components:
+Logging: All interactions, including sending and receiving messages to/from both TCP and UDP sockets, errors, and significant client state changes, are logged.
+TCP Connection: Handles connection to the server for sending buy/sell requests.
+UDP Server: Runs concurrently in a separate thread to handle incoming SCALP requests from the other client.
+Buy/Sell Logic: Simulates sending buy requests to the server, handles insufficient funds by selling tickets, and attempts to buy from another client when sold out.
+Logging Details:
+Every message sent to and received from the server is logged.
+All errors and exceptions are captured in the log.
+Log output is both printed to the console and saved to ticket_client.log.
+This Python script sets up the client for robust interaction with a server, ensures all important operations are logged, and manages concurrent network operations using threading.</t>
+  </si>
+  <si>
+    <t>Server Log</t>
+  </si>
+  <si>
+    <t>Client Log</t>
+  </si>
+  <si>
+    <t>server-0-3.log</t>
+  </si>
+  <si>
+    <t>server-0-4-na.log</t>
+  </si>
+  <si>
+    <t>server-0-5-client-0-6.log</t>
+  </si>
+  <si>
+    <t>client-0-6-1-server-0-5.log, client-0-6-2-server-0-5.log</t>
+  </si>
+  <si>
+    <t>Attached is the server program that you implemented. However, there are several errors. The first error was that the server did not wait for the second client to connect, but proceeded to sell tickets to the first client. The server is supposed to wait for both clients to connect and then start processing the sell requests from both clients. Please fix this problem given the server program that you implemented.</t>
+  </si>
+  <si>
+    <t>To address the issue where the server begins processing requests before both clients are connected, we need to ensure that all client connections are established before any transaction processing starts. We can do this by coordinating the connections using synchronization mechanisms like threading barriers or condition variables.
+Here's a modified version of the provided server code snippet that implements such a synchronization mechanism to ensure both clients are connected before proceeding with handling their requests:
+import socket
+import threading
+import random
+import logging
+# Configure logging
+logging.basicConfig(level=logging.INFO,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_server.log"),
+                        logging.StreamHandler()
+                    ])
+# Global lock for thread safety
+lock = threading.Lock()
+# Global ticket database
+tickets = {f"{10000 + i}": {"price": random.randint(200, 400), "sold": False} for i in range(25)}
+# Connection barrier to wait for both clients
+connection_barrier = threading.Barrier(2)  # Set to 2, for two clients
+def handle_client(client_socket, address):
+    global tickets
+    transaction_log = []
+    # Wait for all clients to connect
+    try:
+        connection_barrier.wait()
+    except threading.BrokenBarrierError:
+        logging.error("Barrier is broken due to some client disconnection!")
+        return
+    while True:
+        try:
+            data = client_socket.recv(1024).decode('utf-8').strip()
+            if not data:
+                break
+            logging.info(f"Received from {address}: {data}")
+            cmd, *args = data.split()
+            # Process BUY request
+            if cmd == "BUY":
+                user_balance = int(args[0])
+                response = "SOLDOUT"
+                with lock:
+                    for ticket, details in tickets.items():
+                        if not details['sold'] and user_balance &gt;= details['price']:
+                            if user_balance &gt;= details['price']:
+                                details['sold'] = True
+                                response = f"{ticket} {details['price']}"
+                                transaction_log.append((ticket, 'BUY'))
+                                break
+                            else:
+                                response = "NOFUNDS"
+                                break
+                client_socket.sendall(response.encode())
+            # Process SELL request
+            elif cmd == "SELL":
+                ticket_number = args[0]
+                with lock:
+                    if ticket_number in tickets and tickets[ticket_number]['sold']:
+                        tickets[ticket_number]['sold'] = False
+                        response = f"{ticket_number} {tickets[ticket_number]['price']}"
+                        transaction_log.append((ticket_number, 'SELL'))
+                        client_socket.sendall(response.encode())
+                    else:
+                        client_socket.sendall("ERROR".encode())
+        except Exception as e:
+            logging.error(f"Error with client {address}: {e}")
+            break
+    client_socket.close()
+    logging.info(f"Transaction log for {address}: {transaction_log}")
+def start_server(port):
+    server_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    server_socket.bind(('localhost', port))
+    server_socket.listen(2)  # Expecting exactly 2 clients
+    logging.info("Initial Tickets:")
+    for ticket, details in tickets.items():
+        logging.info(f"Ticket #{ticket}, Price: ${details['price']}, Sold: {details['sold']}")
+    clients = []
+    try:
+        while len(clients) &lt; 2:
+            client_socket, addr = server_socket.accept()
+            logging.info(f"Connected with {addr}")
+            client_thread = threading.Thread(target=handle_client, args=(client_socket, addr))
+            client_thread.start()
+            clients.append(client_thread)
+    except KeyboardInterrupt:
+        logging.info("Server is shutting down...")
+    # Wait for all threads to complete
+    for thread in clients:
+        thread.join()
+    logging.info("Final Tickets:")
+    for ticket, details in tickets.items():
+        logging.info(f"Ticket #{ticket}, Price: ${details['price']}, Sold: {details['sold']}")
+    server_socket.close()
+if __name__ == "__main__":
+    random.seed(10)
+    start_server(12345)
+Key Changes:
+Connection Barrier: A threading barrier is used to pause all client threads until exactly two clients have connected. This ensures that the server doesn't begin processing any client requests until both clients are fully connected and ready to transact.
+Error Handling for Barrier: Added handling for potential BrokenBarrierError, which might occur if one of the clients disconnects unexpectedly while waiting at the barrier.
+This modification will fix the issue of premature request processing, aligning with the requirement that the server should handle client requests only after both clients have connected.</t>
+  </si>
+  <si>
+    <t>0/server-0-7.py</t>
+  </si>
+  <si>
+    <t>server-0-7-client-0-6.log</t>
+  </si>
+  <si>
+    <t>client-0-6-1-server-0-7.log, client-0-6-2-server-0-7.log</t>
+  </si>
+  <si>
+    <t>1. Server did not wait for the second client to connect, but proceeded to selling tickets to the first client. 
+2. Client 1 finished first and exited, server exited, and Client 2 was still idling indefinitely
+3. In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack.
+4. Error in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted</t>
+  </si>
+  <si>
+    <t>1. Fixed
+2. Client 1 finished first and exited, server exited, and Client 2 was still idling indefinitely.
+3. In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; DId not happen
+4. Error in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted</t>
+  </si>
+  <si>
+    <t>Attached are the server program and the client program that you implemented. However, there are still errors. After completing the transactions, the first client exited, and the server did not wait for the second client to exit, but proceeded to close down the connection, leaving the second client idling indefinitely. The server is supposed to wait for both clients to exit, then log the final ticket database, and close down the connection and exit only when the other client exits. Please fix this problem given the server program and the client program that you implemented.
+Please be sure to log all messages that were sent or received by both server and client. Also, the log mode should be DEBUG to record all levels of information during execution.</t>
+  </si>
+  <si>
+    <t>To address the issue where the server does not properly wait for both clients to exit before shutting down, I will modify the server code to include proper synchronization and client management. Additionally, I'll ensure all communications and events are logged at the DEBUG level, providing detailed visibility into the server's operations.
+Here is a revised approach for the server code:
+Use Thread Joining: Ensure all client handling threads are joined properly before the server attempts to shut down. This guarantees that the server waits for all client transactions to complete.
+Implement Client Tracking: Maintain a list or counter to track active client connections. Only proceed to shutdown when all clients have disconnected.
+Enhanced Logging: Set the logging level to DEBUG and log all incoming and outgoing messages, as well as significant events like client connections, disconnections, and errors.
+Revised Server Code:
+import socket
+import threading
+import random
+import logging
+# Set up logging
+logging.basicConfig(level=logging.DEBUG,  # Set logging to debug level
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_server.log"),
+                        logging.StreamHandler()
+                    ])
+# Lock for thread safety in modifying shared resources
+lock = threading.Lock()
+# Initialize ticket database
+tickets = {f"{10000 + i}": {"price": random.randint(200, 400), "sold": False} for i in range(25)}
+# List to track client threads
+client_threads = []
+def handle_client(client_socket, address):
+    global tickets
+    logging.debug(f"Client connected: {address}")
+    try:
+        while True:
+            data = client_socket.recv(1024).decode('utf-8').strip()
+            if not data:
+                break
+            logging.debug(f"Received from {address}: {data}")
+            cmd, *args = data.split()
+            response = "UNKNOWN COMMAND"
+            with lock:
+                if cmd == "BUY":
+                    user_balance = int(args[0])
+                    for ticket, details in tickets.items():
+                        if not details['sold'] and user_balance &gt;= details['price']:
+                            details['sold'] = True
+                            response = f"{ticket} {details['price']}"
+                            break
+                    else:
+                        response = "SOLDOUT" if all(t['sold'] for t in tickets.values()) else "NOFUNDS"
+                elif cmd == "SELL":
+                    ticket_number = args[0]
+                    if tickets.get(ticket_number, {}).get('sold', False):
+                        tickets[ticket_number]['sold'] = False
+                        response = f"{ticket_number} {tickets[ticket_number]['price']}"
+            client_socket.sendall(response.encode())
+            logging.debug(f"Sent to {address}: {response}")
+    except Exception as e:
+        logging.error(f"Error handling client {address}: {e}")
+    finally:
+        client_socket.close()
+        logging.debug(f"Client disconnected: {address}")
+def start_server(port):
+    server_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    server_socket.bind(('localhost', port))
+    server_socket.listen(2)  # Expecting only 2 clients
+    logging.info("Server started and waiting for clients.")
+    try:
+        while len(client_threads) &lt; 2:
+            client_socket, addr = server_socket.accept()
+            thread = threading.Thread(target=handle_client, args=(client_socket, addr))
+            thread.start()
+            client_threads.append(thread)
+        # Wait for all client threads to finish
+        for thread in client_threads:
+            thread.join()
+    finally:
+        logging.info("All clients have disconnected. Final ticket status:")
+        for ticket, details in tickets.items():
+            logging.info(f"Ticket #{ticket}: Price ${details['price']}, Sold {details['sold']}")
+        server_socket.close()
+        logging.info("Server shutdown.")
+if __name__ == "__main__":
+    start_server(12345)
+Key Changes:
+Thread Joining: After starting each client thread, we ensure that the server joins all threads, waiting for each to complete before shutting down.
+Logging: Set to DEBUG level to capture detailed information, ensuring that every message and key action is logged for troubleshooting and analysis.
+This code will ensure that the server properly manages client sessions, waits for all client activities to conclude before shutting down, and provides detailed logging of all interactions and internal states.</t>
+  </si>
+  <si>
+    <t>0/server-0-8.py</t>
+  </si>
+  <si>
+    <t>server-0-8-client-0-6.log</t>
+  </si>
+  <si>
+    <t>client-0-6-1-server-0-8.log, client-0-6-2-server-0-8.log</t>
+  </si>
+  <si>
+    <t>1. Not fixed: Server did not wait for both clients to connect before selling ticket.
+2. Not fixed: Client 1 finished first and exited, server exited, and Client 2 was still idling indefinitely.
+3. In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; DId not happen
+4. Error in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).</t>
+  </si>
+  <si>
+    <t>The revised server program that you just generated performed worse than before. The server is supposed to wait for both clients to enter before beginning to sell tickets. Also, the server is supposed to wait for both clients to exit before closing down the connections and exiting the program. Attached is the server program that you generated before last, in which, the server was waiting for both clients to join before processing their buy requests. Based on this server program,  address the second issue, which is waiting for both clients to exit before closing down the connections and exiting the program. 
+Please be sure to log all messages that were sent and received by both of the server and clients. Also, the log mode should be DEBUG to record all levels of information during execution. (Attached the prog. server-0-7.py)</t>
+  </si>
+  <si>
+    <t>To modify the existing server program so that it properly waits for both clients to finish their transactions before shutting down, we'll make sure to handle the joining of client threads effectively. Additionally, I'll ensure that the logging captures all messages and is set to DEBUG level for comprehensive information.
+Here’s a modification based on your requirements:
+Connection and Disconnection Management: Use a barrier to ensure all clients are connected before processing begins. Then, use proper synchronization to ensure all client threads have finished before the server closes any connections and exits.
+Logging: All communications and server operations will be logged at the DEBUG level to provide detailed insights.
+Updated Server Code with Proper Thread Management and Logging
+import socket
+import threading
+import random
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,  # Change to DEBUG
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_server.log"),
+                        logging.StreamHandler()
+                    ])
+# Global lock for thread safety
+lock = threading.Lock()
+# Initialize ticket database
+tickets = {f"{10000 + i}": {"price": random.randint(200, 400), "sold": False} for i in range(25)}
+# Connection barrier to ensure both clients are connected before processing starts
+connection_barrier = threading.Barrier(2)  # Waiting for 2 clients
+def handle_client(client_socket, address):
+    global tickets
+    # Wait for both clients to connect
+    connection_barrier.wait()
+    try:
+        while True:
+            data = client_socket.recv(1024)
+            if not data:
+                break
+            data = data.decode('utf-8').strip()
+            logging.debug(f"Received from {address}: {data}")
+            cmd, *args = data.split()
+            with lock:
+                if cmd == "BUY":
+                    user_balance = int(args[0])
+                    response = "SOLDOUT"
+                    for ticket, details in tickets.items():
+                        if not details['sold'] and user_balance &gt;= details['price']:
+                            details['sold'] = True
+                            response = f"{ticket} {details['price']}"
+                            break
+                    client_socket.sendall(response.encode())
+                    logging.debug(f"Sent to {address}: {response}")
+                elif cmd == "SELL":
+                    ticket_number = args[0]
+                    if tickets[ticket_number]['sold']:
+                        tickets[ticket_number]['sold'] = False
+                        response = f"{ticket_number} {tickets[ticket_number]['price']}"
+                        client_socket.sendall(response.encode())
+                        logging.debug(f"Sent to {address}: {response}")
+    except Exception as e:
+        logging.error(f"Error with client {address}: {e}")
+    finally:
+        logging.info(f"Client {address} disconnected.")
+        client_socket.close()
+def start_server(port):
+    server_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    server_socket.bind(('localhost', port))
+    server_socket.listen(2)  # Expecting only 2 clients
+    logging.info("Server is ready and waiting for clients.")
+    threads = []
+    try:
+        for _ in range(2):  # We expect exactly 2 clients
+            client_socket, addr = server_socket.accept()
+            logging.info(f"Client {addr} connected.")
+            thread = threading.Thread(target=handle_client, args=(client_socket, addr))
+            thread.start()
+            threads.append(thread)
+        # Wait for all threads to complete
+        for thread in threads:
+            thread.join()
+    finally:
+        logging.info("All clients have disconnected. Final ticket database:")
+        for ticket, details in tickets.items():
+            logging.info(f"Ticket #{ticket}: Price ${details['price']}, Sold {details['sold']}")
+        server_socket.close()
+        logging.info("Server has shut down.")
+if __name__ == "__main__":
+    start_server(12345)
+Explanation
+Connection Synchronization: A barrier ensures all clients are connected before any transactions start.
+Thread Joining: After starting client threads, the server waits for all to complete before proceeding to shut down. This ensures that the server only shuts down after all clients have disconnected.
+Logging: All incoming and outgoing messages are logged at the DEBUG level to provide a detailed execution trace.
+This approach should resolve the issues with client handling and shutdown synchronization, ensuring that the server behaves as expected throughout its lifecycle.</t>
+  </si>
+  <si>
+    <t>0/server-0-9.py</t>
+  </si>
+  <si>
+    <t>server-0-9-client-0-6.log</t>
+  </si>
+  <si>
+    <t>client-0-6-1-server-0-9.log, client-0-6-2-server-0-9.log</t>
+  </si>
+  <si>
+    <t>This implementation did not cover all the functionalities of the server. What happen when the server receives a buy request that is insufficient from a client?
+You also forgot to print out the initial ticket database when the server just started, which is one of the required functionalities of the server.</t>
+  </si>
+  <si>
+    <t>To ensure that the server prints the initial ticket database when it starts, I'll include a function that logs the initial state of the ticket database right after it is initialized. This will give you visibility into the ticket setup before any transactions occur.
+Here’s the modified server code to include this functionality:
+import socket
+import threading
+import random
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_server.log"),
+                        logging.StreamHandler()
+                    ])
+# Global lock for thread safety
+lock = threading.Lock()
+# Initialize ticket database
+tickets = {f"{10000 + i}": {"price": random.randint(200, 400), "sold": False} for i in range(25)}
+# Connection barrier to ensure both clients are connected before processing starts
+connection_barrier = threading.Barrier(2)  # Waiting for 2 clients
+def print_initial_tickets():
+    """Prints the initial state of the tickets."""
+    logging.info("Initial ticket database:")
+    for ticket, details in tickets.items():
+        logging.info(f"Ticket #{ticket}: Price ${details['price']}, Sold {details['sold']}")
+def handle_client(client_socket, address):
+    global tickets
+    # Wait for both clients to connect
+    connection_barrier.wait()
+    try:
+        while True:
+            data = client_socket.recv(1024)
+            if not data:
+                break
+            data = data.decode('utf-8').strip()
+            logging.debug(f"Received from {address}: {data}")
+            cmd, *args = data.split()
+            response = "UNKNOWN COMMAND"
+            if cmd == "BUY":
+                user_balance = int(args[0])
+                with lock:
+                    for ticket, details in tickets.items():
+                        if not details['sold']:
+                            if user_balance &gt;= details['price']:
+                                details['sold'] = True
+                                response = f"{ticket} {details['price']}"
+                                break
+                            else:
+                                response = "NOFUNDS"
+                        else:
+                            response = "SOLDOUT"
+                client_socket.sendall(response.encode())
+                logging.debug(f"Sent to {address}: {response}")
+            elif cmd == "SELL":
+                ticket_number = args[0]
+                with lock:
+                    if tickets[ticket_number]['sold']:
+                        tickets[ticket_number]['sold'] = False
+                        response = f"{ticket_number} {tickets[ticket_number]['price']}"
+                        client_socket.sendall(response.encode())
+                        logging.debug(f"Sent to {address}: {response}")
+    except Exception as e:
+        logging.error(f"Error with client {address}: {e}")
+    finally:
+        logging.info(f"Client {address} disconnected.")
+        client_socket.close()
+def start_server(port):
+    server_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    server_socket.bind(('localhost', port))
+    server_socket.listen(2)  # Expecting only 2 clients
+    logging.info("Server is ready and waiting for clients.")
+    print_initial_tickets()  # Log the initial state of the ticket database
+    threads = []
+    try:
+        for _ in range(2):  # We expect exactly 2 clients
+            client_socket, addr = server_socket.accept()
+            logging.info(f"Client {addr} connected.")
+            thread = threading.Thread(target=handle_client, args=(client_socket, addr))
+            thread.start()
+            threads.append(thread)
+        # Wait for all threads to complete
+        for thread in threads:
+            thread.join()
+    finally:
+        logging.info("All clients have disconnected. Final ticket database:")
+        for ticket, details in tickets.items():
+            logging.info(f"Ticket #{ticket}: Price ${details['price']}, Sold {details['sold']}")
+        server_socket.close()
+        logging.info("Server has shut down.")
+if __name__ == "__main__":
+    start_server(12345)
+Key Adjustments:
+Handling Insufficient Funds: The server checks if the client's balance is enough for the cheapest available ticket. If not, it responds with "NOFUNDS".
+Print Initial Tickets: The print_initial_tickets() function is called right after the server starts and the tickets are initialized. This ensures the initial state of the ticket database is logged.
+Improved Logging: The initial and final state of tickets are clearly logged, along with all client transactions and connections, ensuring full traceability.
+This code now meets all specified requirements, including waiting for both clients to connect before transactions begin, handling buy requests with insufficient funds appropriately, and logging the initial ticket state.</t>
+  </si>
+  <si>
+    <t>0/server-0-10.py</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-6.log</t>
+  </si>
+  <si>
+    <t>client-0-6-1-server-0-10.log, client-0-6-2-server-0-10.log</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: Server did not wait for both clients to connect before selling ticket.
+2. Client 1 finished first and exited, server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last client closed the TCP connection, but still waiting for the UDP thread to finish.
+3. In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; DId not happen
+4. Error in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. A client still waits for the UDP listener to finish.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: Server did not wait for both clients to connect before selling ticket.
+2. Client 1 finished first and exited, server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last client closed the TCP connection, but still waiting for the UDP thread to finish.
+3. In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; DId not happen
+4. Error in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. A client still waits for the UDP listener to finish.</t>
   </si>
 </sst>
 </file>
@@ -774,24 +1344,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E39F754-1327-4C31-8156-C5B4C2CFB3FA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,13 +1381,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -830,11 +1409,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -850,11 +1429,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -871,13 +1450,16 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -894,13 +1476,16 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -916,11 +1501,156 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment Tracking Sheet.xlsx
+++ b/Experiment Tracking Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\DIssertation\Ticket5ellingSystem-Exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE995B8-D9F2-4BDB-A2EF-14E7ADBA5004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98347EA5-A43F-40ED-8E37-183E086E951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5880" windowWidth="23256" windowHeight="12456" xr2:uid="{20830222-D529-4FF8-BDA5-3DAE3BD48417}"/>
   </bookViews>

--- a/Experiment Tracking Sheet.xlsx
+++ b/Experiment Tracking Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\DIssertation\Ticket5ellingSystem-Exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98347EA5-A43F-40ED-8E37-183E086E951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C28CEEE-7F08-4766-9133-A86E1E50FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5880" windowWidth="23256" windowHeight="12456" xr2:uid="{20830222-D529-4FF8-BDA5-3DAE3BD48417}"/>
   </bookViews>
@@ -974,7 +974,7 @@
 3. In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; DId not happen
 4. Error in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
 5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
-6. Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
 7. A client still waits for the UDP listener to finish.</t>
   </si>
 </sst>
@@ -1028,8 +1028,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,8 +1347,8 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1420,10 +1420,10 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
@@ -1443,7 +1443,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -1469,7 +1469,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -1492,10 +1492,10 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
@@ -1518,7 +1518,7 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -1533,7 +1533,7 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
       <c r="E8" t="s">
@@ -1562,7 +1562,7 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1573,10 +1573,10 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
       <c r="E9" t="s">
@@ -1591,7 +1591,7 @@
       <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1602,10 +1602,10 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
       <c r="E10" t="s">
@@ -1620,7 +1620,7 @@
       <c r="H10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1631,10 +1631,10 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>52</v>
       </c>
       <c r="E11" t="s">
@@ -1649,7 +1649,7 @@
       <c r="H11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Experiment Tracking Sheet.xlsx
+++ b/Experiment Tracking Sheet.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\DIssertation\Ticket5ellingSystem-Exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C28CEEE-7F08-4766-9133-A86E1E50FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D80F50-EB42-447B-B84E-EBAAF3D8EFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5880" windowWidth="23256" windowHeight="12456" xr2:uid="{20830222-D529-4FF8-BDA5-3DAE3BD48417}"/>
+    <workbookView xWindow="-57720" yWindow="-1095" windowWidth="29040" windowHeight="15720" xr2:uid="{20830222-D529-4FF8-BDA5-3DAE3BD48417}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk174533471" localSheetId="0">Sheet1!$C$40</definedName>
+    <definedName name="_Hlk174536970" localSheetId="0">Sheet1!$C$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="234">
   <si>
     <t>Exp #</t>
   </si>
@@ -977,12 +981,4533 @@
 6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
 7. A client still waits for the UDP listener to finish.</t>
   </si>
+  <si>
+    <t>Trial 1: There is an error in the client program, where both clients are supposed to connect via UDP. However, the UDP connection was never established. This led to one of the clients still waits indefinitely for the UDP listener to finish. Below is the error of the client program and the client program attached:
+Error in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+Please update the client program based on the attached client program. Only change the parts that are necessary, and do not change anything else.
+Trial 2: Looks like you have forgotten the client's functionalities. Here is the reminder: 
+There is only one client program, but 2 clients execute the same program. The clients will connect via a UDP port which is an increment of the TCP port connection with the server. Both clients will connect via UDP while sending the 15 automatic buy requests to the server. The first client that receives the SOLDOUT answer from the server will become a buyer and send a scalp request to the other client in the format of SCALP &lt;user balance&gt;. The scalper can then respond in two ways:
+3)	&lt;ticket number&gt; &lt;two times the ticket price&gt;
+If the buyer has enough fund to buy this ticket, the scalper will return this response. The buyer will update his balance and ticket database. 
+4)	NOMONEY
+If the buyer does not have enough fund, the scalper will return this response. The buyer will sell one of his tickets back to the server at the original price to acquire additional funds. Once the ticket is sold to the server, the buyer will update his balance and ticket database. 
+Based on the requirements of the client program, please fix the UDP connection in the client program, which is attached here. Only change the necessary parts, and do not change anything else.
+Trial 3: There is no argument to indicate the client ID. Just set the client to establish the TCP connection as the one to establish the UDP connection.
+Trial 4: Keep in mind that the UDP connection must be a shared UDP port communication where one client, who is not necessarily the client that started the UDP connection, can send a scalping request to the other client.
+(Response of Trial 4 is saved in client-0-11.py)</t>
+  </si>
+  <si>
+    <t>Understood! To implement a shared UDP port communication system where either client can act as the sender or receiver regardless of who established the connection first, we need a slightly different approach. Both clients will need to be capable of binding to the same UDP port and also sending messages to this port.
+Implementing Shared UDP Port Communication
+To allow both clients to use the same UDP port effectively:
+1.	Both Clients Bind and Send: Both clients will attempt to bind to the same UDP port. This can be achieved using the SO_REUSEPORT socket option, which allows multiple applications to bind to the same port if they all set this option.
+2.	Handling Messages: Both clients will listen on the UDP port and send messages as needed. We need to ensure that they can distinguish messages from each other, likely by including client identifiers in the messages or based on the content of the messages themselves.
+Here's how you could adjust the client program to enable shared UDP communication:
+Updated Client Program for Shared UDP Communication
+import socket
+import threading
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener(udp_socket):
+    """ Listens for messages on the UDP socket. Both clients will use this method. """
+    try:
+        while True:
+            data, addr = udp_socket.recvfrom(1024)
+            message = data.decode()
+            logging.debug(f"Received via UDP from {addr}: {message}")
+            # Handle incoming messages based on protocol logic here
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+def main():
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket,))
+    udp_thread.start()
+    # Example TCP client setup (simplified)
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    # Assume some communication to determine role, etc.
+    tcp_socket.close()
+    udp_thread.join()
+    udp_socket.close()
+if __name__ == "__main__":
+    main()
+Key Points:
+•	SO_REUSEPORT: This socket option allows multiple processes or threads on the same host to bind to the same port number provided they all use the option when creating the socket. It’s important to note that the availability and behavior of SO_REUSEPORT can vary between different operating systems.
+•	Shared Listening and Sending: Both clients can listen and send on the same UDP port, handling communication seamlessly.
+This implementation will allow both clients to send and receive messages on the same UDP port, supporting the functionalities you described. Make sure that your operating system supports the SO_REUSEPORT option, as its behavior can vary, especially across different platforms like Windows or Linux.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-11.log</t>
+  </si>
+  <si>
+    <t>0/client-0-11.py</t>
+  </si>
+  <si>
+    <t>N/A cannot compile</t>
+  </si>
+  <si>
+    <t>There is an error in the client program that you just implemented. Here is the error: 
+“client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT'.
+Please fix the attached client program that you just implemented. Only change the necessary parts, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>It looks like you're encountering an issue with the SO_REUSEPORT option, which isn't available on all platforms—Windows notably lacks this option. To ensure that both clients can use the same UDP port without this specific socket option, we'll adjust the approach so that both clients bind to the same port without requiring SO_REUSEPORT.
+For this, we can use the SO_REUSEADDR option, which is generally supported across different platforms and can allow multiple sockets to bind to the same port, provided that the option is set before binding the socket. However, it's important to note that on most systems, SO_REUSEADDR allows rebinding which can lead to less predictable behavior in terms of which socket will actually receive the incoming packets.
+Here's a modified version of your client code that utilizes SO_REUSEADDR instead:
+python
+Copy code
+import socket
+import threading
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener(udp_socket):
+    """ Listens for messages on the UDP socket. Both clients will use this method. """
+    try:
+        while True:
+            data, addr = udp_socket.recvfrom(1024)
+            message = data.decode()
+            logging.debug(f"Received via UDP from {addr}: {message}")
+            # Handle incoming messages based on protocol logic here
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+def main():
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket,))
+    udp_thread.start()
+    # Example TCP client setup (simplified)
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    # Assume some communication to determine role, etc.
+    tcp_socket.close()
+    udp_thread.join()
+    udp_socket.close()
+if __name__ == "__main__":
+    main()
+Key Points:
+•	SO_REUSEADDR: Used to allow multiple instances of the program to bind to the same port. This helps in environments where SO_REUSEPORT is not available.
+•	Socket Initialization: Both clients set up their UDP sockets with SO_REUSEADDR and bind to the same port.
+This should help resolve the issue with binding to the same UDP port in a cross-platform way. It's important to test this in your specific environment to ensure that it behaves as expected, particularly because socket behavior can vary between operating systems.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-12.log</t>
+  </si>
+  <si>
+    <t>0/client-0-12.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: Server did not wait for both clients to connect before selling ticket.
+2. Not fixed: Client 1 finished first and exited, server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last client closed the TCP connection, but still waiting for the UDP thread to finish.
+3. Not fixed In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; DId not happen
+4. Not fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' </t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: Server did not wait for both clients to connect before selling ticket.
+2. Not fixed: Client 1 finished first and exited, server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last client closed the TCP connection, but still waiting for the UDP thread to finish.
+3. Not fixed In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; DId not happen
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py</t>
+  </si>
+  <si>
+    <t>The client program that you just implemented (attached as client-0-12.py) has successfully established a UDP connection between two clients and a TCP connection between the clients and the server. However, you forgot to include all of the required functionalities like sell and buy, which were implemented in the previous client program client-0-6.py.
+To address this, please keep the UDP connection and TCP connection set up in client-0-12.py and incorporate the entire send_requests_to_server() function in the client-0-6.py in your implementation this time. 
+Only change the necessary part, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>Given the need to incorporate the full send_requests_to_server() functionality from the previous client program (client-0-6.py) into the latest client setup that manages UDP and TCP connections (client-0-12.py), I'll integrate these functionalities while preserving the successful UDP and TCP connection setups.
+Here's how the updated client program will look:
+Updated Client Program:
+import socket
+import threading
+import logging
+import sys
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener(udp_socket):
+    """ Listens for messages on the UDP socket. Both clients will use this method. """
+    try:
+        while True:
+            data, addr = udp_socket.recvfrom(1024)
+            message = data.decode()
+            logging.debug(f"Received via UDP from {addr}: {message}")
+            # Handle incoming messages based on protocol logic here
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+def send_requests_to_server(tcp_socket):
+    """ Function to handle automated buy/sell requests to the server """
+    user_balance = 4000
+    ticket_db = {}
+    for _ in range(15):  # Simulate 15 transactions
+        try:
+            message = f"BUY {user_balance}"
+            tcp_socket.sendall(message.encode())
+            logging.debug(f"Sent to server: {message}")
+            response = tcp_socket.recv(1024).decode()
+            logging.debug(f"Received from server: {response}")
+            if "NOFUNDS" in response:
+                # Assuming the client chooses to sell the first ticket for simplicity
+                if ticket_db:
+                    ticket_number, ticket_price = next(iter(ticket_db.items()))
+                    sell_message = f"SELL {ticket_number}"
+                    tcp_socket.sendall(sell_message.encode())
+                    received_message = tcp_socket.recv(1024).decode()
+                    logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+                    user_balance += ticket_price  # Update balance assuming server buys it back at price
+                    del ticket_db[ticket_number]
+            elif "SOLDOUT" not in response:
+                ticket_number, price = response.split()
+                ticket_db[ticket_number] = int(price)
+                user_balance -= int(price)
+        except Exception as e:
+            logging.error(f"Error during BUY/SELL transactions: {e}")
+            break
+def main():
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket,))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket)
+    tcp_socket.close()
+    udp_thread.join()
+    udp_socket.close()
+if __name__ == "__main__":
+    main()
+Key Changes:
+•	send_requests_to_server() Function: Integrated from client-0-6.py, handling the logic for automated buy and sell requests, including handling of insufficient funds and sold-out scenarios.
+•	UDP Communication: Kept as per client-0-12.py, with both clients prepared to handle shared UDP communication.
+•	Logging: All interactions, errors, and state changes are logged to provide a detailed execution trace.
+This implementation merges the transaction handling capabilities of your previous client setup with the successful TCP and UDP connection management of the latest setup. It should address your requirements for having complete functionality in the client program.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-13.log</t>
+  </si>
+  <si>
+    <t>0/client-0-13.py</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before selling ticket.
+2. Not fixed: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last client closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.
+3. Not fixed In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Not fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.   client program did not maintain a ticket db and client balance and print out at the end.</t>
+  </si>
+  <si>
+    <t>The client program that you just implemented allowed both clients to successfully connect via UDP, and to the server via TCP connection. However, this program did not log the remaining balance and the ticket database of each client. The client program should log when its TCP connection and UDP connection are closed. Another issue is that both clients were waiting for the UDP listener to finish and they never close the UDP connection. 
+Please address these errors given your previous implementation attached as client-0-13.py. Only change the necessary parts, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>To address the issues mentioned, including logging the remaining balance and ticket database for each client and ensuring the proper closure of TCP and UDP connections, we'll make the necessary adjustments. Here’s how to refine the client program:
+1.	Logging Balance and Ticket Database: At the end of the transactions and before closing the connections, we will log the final state of the client’s balance and ticket database.
+2.	Properly Close UDP and TCP Connections: Ensure the UDP listener can exit properly and does not cause the client to wait indefinitely.
+3.	Log Connection Closures: Add logging statements to confirm when each connection is closed.
+Revised Client Program with Necessary Changes
+import socket
+import threading
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener(udp_socket, stop_event):
+    """ Listens for messages on the UDP socket. """
+    try:
+        while not stop_event.is_set():
+            data, addr = udp_socket.recvfrom(1024)
+            message = data.decode()
+            logging.debug(f"Received via UDP from {addr}: {message}")
+            # Handle incoming messages based on protocol logic here
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def send_requests_to_server(tcp_socket):
+    """ Function to handle automated buy/sell requests to the server """
+    user_balance = 4000
+    ticket_db = {}
+    for _ in range(15):  # Simulate 15 transactions
+        try:
+            message = f"BUY {user_balance}"
+            tcp_socket.sendall(message.encode())
+            logging.debug(f"Sent to server: {message}")
+            response = tcp_socket.recv(1024).decode()
+            logging.debug(f"Received from server: {response}")
+            if "NOFUNDS" in response:
+                # Assuming the client chooses to sell the first ticket for simplicity
+                if ticket_db:
+                    ticket_number, ticket_price = next(iter(ticket_db.items()))
+                    sell_message = f"SELL {ticket_number}"
+                    tcp_socket.sendall(sell_message.encode())
+                    received_message = tcp_socket.recv(1024).decode()
+                    logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+                    user_balance += ticket_price  # Update balance assuming server buys it back at price
+                    del ticket_db[ticket_number]
+            elif "SOLDOUT" not in response:
+                ticket_number, price = response.split()
+                ticket_db[ticket_number] = int(price)
+                user_balance -= int(price)
+        except Exception as e:
+            logging.error(f"Error during BUY/SELL transactions: {e}")
+            break
+    # Log the final state of the ticket database and balance
+    logging.info(f"Final user balance: {user_balance}")
+    logging.info("Final ticket database:")
+    for ticket, price in ticket_db.items():
+        logging.info(f"Ticket #{ticket}: Price {price}")
+def main():
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Event to stop the UDP listener thread when needed
+    stop_event = threading.Event()
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket)
+    # Clean up connections
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+    stop_event.set()
+    udp_thread.join()
+if __name__ == "__main__":
+    main()
+Key Changes:
+UDP Listener Exit Mechanism: Added a stop_event to allow the UDP listener thread to exit cleanly when the main thread finishes processing.
+Logging Connection Closures: Added logging statements to confirm when the TCP and UDP connections are closed.
+Final State Logging: After transactions are complete, the final balance and ticket database are logged.
+This script ensures both TCP and UDP connections are managed properly and all required functionalities are maintained.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-14.log</t>
+  </si>
+  <si>
+    <t>0/client-0-14.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before selling ticket.
+2. Not fixed: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely. 
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)	Trial 1:
+Prompt: The program that you just implemented successfully establish the UDP connection between clients and the TCP connection between the clients and the server. The buy and sell functions work on the client side and the final ticket database and remaining balance were logged. However, both clients were still waiting indefinitely for the thread that handles the UDP connection, and none of them close the UDP connection. 
+Please fix this given the program that you just implemented attached as client-0-14.py.
+Only change the necessary parts, and remember to log important steps and outputs.
+2)	Trial 2:
+Prompt: You need to include all of the functions like buy and sell in the send_requests_to_server, which were implemented previously in client-0-6.py. Please incorporate this into the sample implementation of the adjusted client program. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Trial 1:
+To ensure that both clients do not wait indefinitely for the UDP listener thread and properly close the UDP connection, we need to adjust the UDP listener functionality to ensure it can exit cleanly under certain conditions, such as after a predefined period of inactivity or after all required messages have been received. This way, both clients can close their connections appropriately.
+Here's a conceptual adjustment to the UDP listener and the main function to allow the UDP thread to terminate under controlled conditions:
+Adjustments to Client Program
+1.	Timeout for UDP Listener: Introduce a timeout for the UDP socket so that it doesn't block indefinitely on recvfrom(). This timeout will be triggered if no messages are received within a certain timeframe.
+2.	Conditional Break: After the main transactions are complete, signal the UDP listener to stop listening and close the socket.
+Sample Implementation of the Adjusted Client Program  did not include the buy and sell functionalities in the send_requests_to_server() function.
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener(udp_socket, stop_event):
+    """ Listens for messages on the UDP socket. """
+    udp_socket.settimeout(10.0)  # Set timeout to 10 seconds
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                message = data.decode()
+                logging.debug(f"Received via UDP from {addr}: {message}")
+                # Process the message here
+            except socket.timeout:
+                logging.debug("UDP socket timeout, no data received.")
+                break  # Break the loop if no data is received within the timeout
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def send_requests_to_server(tcp_socket):
+    """ Simulates sending requests to the server. """
+    # Simulated transaction logic here
+    time.sleep(5)  # Simulate time taken for transactions
+    logging.info("Finished transactions with server.")
+def main():
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event))
+    udp_thread.start()
+    # Simulate TCP connection and request handling
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(None)  # Passing None since we're not really using it here
+    # Signal the UDP listener to stop and join the thread
+    stop_event.set()
+    udp_thread.join()
+    logging.info("Client operations completed.")
+if __name__ == "__main__":
+    main()
+Key Changes:
+•	UDP Socket Timeout: Added a timeout to the UDP socket to prevent the listener thread from blocking indefinitely on recvfrom().
+•	Controlled Shutdown: Introduced a stop event (stop_event) to signal the listener thread when to terminate, allowing the UDP connection to be closed properly.
+•	Logging: Enhanced logging to track key actions and the UDP listener's status.
+•	This solution ensures that the UDP listener can exit after a period of inactivity or after completing necessary communication, allowing both clients to shut down their connections gracefully.
+•	UDP Socket Timeout: Added a timeout to the UDP socket to prevent the listener thread from blocking indefinitely on recvfrom().
+•	Controlled Shutdown: Introduced a stop event (stop_event) to signal the listener thread when to terminate, allowing the UDP connection to be closed properly.
+•	Logging: Enhanced logging to track key actions and the UDP listener's status.
+This solution ensures that the UDP listener can exit after a period of inactivity or after completing necessary communication, allowing both clients to shut down their connections gracefully.
+2) Trial 2:
+Let’s incorporate the full functionality of buying and selling from the original implementation (client-0-6.py) into the updated client program with proper management of the UDP listener thread. Here, the send_requests_to_server function will handle simulated buy/sell requests to the server, managing user balance and a ticket database.
+Fully Integrated Client Program with Buy and Sell Operations
+import socket
+import threading
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener(udp_socket, stop_event):
+    """ Listens for messages on the UDP socket. """
+    udp_socket.settimeout(10.0)  # Set timeout to 10 seconds
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                message = data.decode()
+                logging.debug(f"Received via UDP from {addr}: {message}")
+                # Process the message here
+            except socket.timeout:
+                logging.debug("UDP socket timeout, no data received.")
+                break  # Break the loop if no data is received within the timeout
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def send_requests_to_server(tcp_socket):
+    """ Function to handle automated buy/sell requests to the server """
+    user_balance = 4000
+    ticket_db = {}
+    for _ in range(15):  # Simulate 15 transactions
+        try:
+            message = f"BUY {user_balance}"
+            tcp_socket.sendall(message.encode())
+            logging.debug(f"Sent to server: {message}")
+            response = tcp_socket.recv(1024).decode()
+            logging.debug(f"Received from server: {response}")
+            if "NOFUNDS" in response:
+                # Assuming the client chooses to sell the first ticket for simplicity
+                if ticket_db:
+                    ticket_number, ticket_price = next(iter(ticket_db.items()))
+                    sell_message = f"SELL {ticket_number}"
+                    tcp_socket.sendall(sell_message.encode())
+                    received_message = tcp_socket.recv(1024).decode()
+                    logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+                    user_balance += ticket_price  # Update balance assuming server buys it back at price
+                    del ticket_db[ticket_number]
+            elif "SOLDOUT" not in response:
+                ticket_number, price = response.split()
+                ticket_db[ticket_number] = int(price)
+                user_balance -= int(price)
+        except Exception as e:
+            logging.error(f"Error during BUY/SELL transactions: {e}")
+            break
+    # Log the final state of the ticket database and balance
+    logging.info(f"Final user balance: {user_balance}")
+    logging.info("Final ticket database:")
+    for ticket, price in ticket_db.items():
+        logging.info(f"Ticket #{ticket}: Price {price}")
+def main():
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Event to stop the UDP listener thread when needed
+    stop_event = threading.Event()
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket)
+    # Clean up connections
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+    stop_event.set()
+    udp_thread.join()
+    udp_socket.close()
+if __name__ == "__main__":
+    main()
+Key Updates:
+•	Full Buy/Sell Logic: Included the detailed buy and sell logic from the previous implementation, managing the user's balance and a ticket database.
+•	Stop Event for UDP Listener: Added a mechanism to stop the UDP listener thread properly after transaction completion, ensuring the UDP connection closes cleanly.
+This integration ensures that the client program handles buying and selling tickets as initially designed, while also managing UDP and TCP connections robustly with appropriate logging.
+</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-15.log</t>
+  </si>
+  <si>
+    <t>0/client-0-15.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before selling ticket.
+2. Not fixed: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so that client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program that you just implemented successfully established the UDP connection between clients and the TCP connection between the clients and the server. The buy and sell functions work on the client side and the final ticket database and remaining balance were logged. However, the time out was too short, and the first client who started the UDP connection closed the UDP connection after 10 seconds. The second client who logged in later, started the UDP connection and no one else was in the UDP connection. 
+Please address this issue by updating the program that you just implemented which is attached as client-0-15.py
+Only change the necessary parts and leave the other parts as is. </t>
+  </si>
+  <si>
+    <t>To address the issue of the timeout being too short and the UDP connection closing prematurely for the first client, we can implement a more robust strategy for managing the UDP listener's activity period. We can extend the timeout period and add a mechanism to ensure that the UDP listener remains active as long as needed, such as maintaining activity until a certain condition is met (e.g., both clients have completed their transactions).
+Here is an approach to modify the UDP listener functionality to handle this more effectively:
+Updated Client Program with Extended UDP Management
+import socket
+import threading
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+def udp_listener(udp_socket, stop_event):
+    """ Listens for messages on the UDP socket. """
+    try:
+        udp_socket.settimeout(1.0)  # Set a shorter timeout for more responsive checks
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    # Process the message here
+            except socket.timeout:
+                continue  # Continue checking if stop_event is set
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def send_requests_to_server(tcp_socket):
+    """ Function to handle automated buy/sell requests to the server """
+    user_balance = 4000
+    ticket_db = {}
+    for _ in range(15):  # Simulate 15 transactions
+        try:
+            message = f"BUY {user_balance}"
+            tcp_socket.sendall(message.encode())
+            logging.debug(f"Sent to server: {message}")
+            response = tcp_socket.recv(1024).decode()
+            logging.debug(f"Received from server: {response}")
+            if "NOFUNDS" in response:
+                if ticket_db:
+                    ticket_number, ticket_price = next(iter(ticket_db.items()))
+                    sell_message = f"SELL {ticket_number}"
+                    tcp_socket.sendall(sell_message.encode())
+                    received_message = tcp_socket.recv(1024).decode()
+                    logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+                    user_balance += ticket_price
+                    del ticket_db[ticket_number]
+            elif "SOLDOUT" not in response:
+                ticket_number, price = response.split()
+                ticket_db[ticket_number] = int(price)
+                user_balance -= int(price)
+        except Exception as e:
+            logging.error(f"Error during BUY/SELL transactions: {e}")
+            break
+    # Log the final state of the ticket database and balance
+    logging.info(f"Final user balance: {user_balance}")
+    logging.info("Final ticket database:")
+    for ticket, price in ticket_db.items():
+        logging.info(f"Ticket #{ticket}: Price {price}")
+def main():
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Event to stop the UDP listener thread when needed
+    stop_event = threading.Event()
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket)
+    # Clean up connections
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+    stop_event.set()
+    udp_thread.join()
+if __name__ == "__main__":
+    main()
+Key Changes:
+•	Shorter Timeout for UDP Socket: Reduced the timeout to 1 second to keep the listener responsive but prevent it from exiting prematurely. This allows regular checks to see if the listener should continue running.
+•	Responsive Check: The listener now only exits when the stop_event is explicitly set, making sure it stays active during all client activities.
+This approach ensures that the UDP listener remains operational until explicitly stopped, allowing both clients to fully complete their interactions without leaving one client without a communication partner.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-16.log</t>
+  </si>
+  <si>
+    <t>0/client-0-16.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  </t>
+  </si>
+  <si>
+    <t>1) Part 1: Yes, I remember the functionalities related to the scalper in your client-server model. Here's a summary of the conditions and functions for a scalper in your system:
+­	Scalper Functionalities:
+1.	Scalping Requests (SCALP): A client becomes a scalper when they receive a SOLDOUT response from the server. This indicates that no more tickets are available for purchase from the server. The client then transitions to a scalper role where they can sell tickets to other clients (buyers) at a higher price.
+2.	Response to SCALP Requests:
+o	Ticket Available at Double Price: If the scalper has tickets and the buyer has enough funds, the scalper will respond with the ticket number and double the original ticket price.
+o	No Money (NOMONEY): If the buyer does not have enough funds to purchase the ticket at the doubled price, the scalper will send a NOMONEY response.
+­	Condition to Become a Scalper:
+•	A client transitions into a scalper if they attempt to buy a ticket after all tickets have been sold out, indicated by receiving a SOLDOUT message from the server.
+Would you like to proceed with implementing these scalper functionalities into the existing client program, ensuring that clients can interact with each other as buyers and scalpers based on the conditions you've set? If so, I can guide you through coding this or provide a complete implementation based on the existing setup.
+2) Part 2: Thank you for pointing that out. When a client, acting as a buyer, receives a "NOMONEY" response from a scalper, here’s what should happen:
+­	Buyer Response to "NOMONEY":
+•	Sell a Ticket to Acquire Funds: If the buyer does not have enough funds to buy a ticket at the scalper's doubled price and receives a "NOMONEY" response, the buyer should choose a ticket from their own inventory to sell back to the server at the original purchase price. This action is intended to replenish the buyer's funds, allowing them to attempt another purchase or to meet other financial needs within the system.
+After selling a ticket to the server, the buyer updates their balance and ticket database accordingly. They may then attempt to send another SCALP request if they still wish to purchase a ticket from the scalper, provided that they now have sufficient funds.
+Would you like to proceed with implementing this part of the functionality where the buyer reacts to a "NOMONEY" response by selling a ticket back to the server? This would complete the interactions between buyers and scalpers in your system.
+3) Part 3: To add scalping functionalities to the existing client program (client-0-16.py), we need to integrate parts that handle:
+1.	The transition of a client into a scalper upon receiving a SOLDOUT response.
+2.	Communication of scalping offers (SCALP messages) over the UDP connection.
+3.	Handling responses to SCALP requests, specifically handling NOMONEY responses by selling tickets back to the server.
+Here's an implementation outline that incorporates these requirements into the existing client setup:
+Modified Client Program with Scalping Functionalities
+import socket
+import threading
+import logging
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # Example TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Assuming both clients know each other's address
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    try:
+        while not stop_event.is_set():
+            data, addr = udp_socket.recvfrom(1024)
+            message = data.decode()
+            logging.debug(f"Received via UDP from {addr}: {message}")
+            handle_udp_message(message, udp_socket, ticket_db, user_balance)
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        if ticket_db:
+            # Example: select the first available ticket and offer it for double the price
+            ticket_number, ticket_price = next(iter(ticket_db.items()))
+            if user_balance[0] &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), other_client_address)
+                logging.debug(f"Sent SCALP response: {response}")
+            else:
+                udp_socket.sendto(b"NOMONEY", other_client_address)
+                logging.debug("Sent SCALP response: NOMONEY")
+        else:
+            udp_socket.sendto(b"NOMONEY", other_client_address)
+            logging.debug("Sent SCALP response: NOMONEY")
+def send_requests_to_server(tcp_socket, ticket_db, user_balance):
+    """ Function to handle automated buy/sell requests to the server """
+    for _ in range(15):  # Simulate 15 transactions
+        try:
+            message = f"BUY {user_balance[0]}"
+            tcp_socket.sendall(message.encode())
+            logging.debug(f"Sent to server: {message}")
+            response = tcp_socket.recv(1024).decode()
+            logging.debug(f"Received from server: {response}")
+            if "NOFUNDS" in response:
+                if ticket_db:
+                    sell_ticket(tcp_socket, ticket_db, user_balance)
+            elif "SOLDOUT" in response:
+                become_scalper()
+            elif response:
+                ticket_number, price = response.split()
+                ticket_db[ticket_number] = int(price)
+                user_balance[0] -= int(price)
+        except Exception as e:
+            logging.error(f"Error during BUY/SELL transactions: {e}")
+            break
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    ticket_number, ticket_price = next(iter(ticket_db.items()))
+    sell_message = f"SELL {ticket_number}"
+    tcp_socket.sendall(sell_message.encode())
+    received_message = tcp_socket.recv(1024).decode()
+    logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+    user_balance[0] += ticket_price
+    del ticket_db[ticket_number]
+def become_scalper():
+    logging.info("Client has become a scalper due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference in the function
+    ticket_db = {}
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket, ticket_db, user_balance)
+    # Clean up connections
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+    stop_event.set()
+    udp_thread.join()
+if __name__ == "__main__":
+    main()
+Key Changes and Additions:
+•	Scalping Functionality: Integrated handling for scalping through the UDP connection, including becoming a scalper upon receiving a SOLDOUT message and responding to SCALP requests.
+•	Dynamic Scalping Responses: Handles dynamic scalping interactions where a client can respond with ticket offers or notify of insufficient funds.
+•	Clean Management of Connections: Ensures all connections are properly managed and closed, with logging for each significant step.
+This revised program fully integrates scalping functionalities, handling different scenarios dynamically over UDP, and ensuring proper logging and connection management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Part 1: The client program that you implemented works great. Both clients were able to send buy and sell requests to the server and established UDP connection with each other and close it at the end. 
+Now we need to implement the scalper functionalities. Do you remember what are the functions of a scalper and a condition for a client to become a scalper?
+2) Part 2: The logic and condition that you mentioned above for a scalper is correct. But you are missing one thing, what happens when the client receives a “NOMONEY” response from a scalper?
+3) Part 3: Given the scalping functionalities, the condition for a client to become a scalper and the client’s corresponding action to the scalper’s message, please implement the scalping functionalities in the client program (attached as client-0-16.py). Remember that scalping transactions are communicated via the UDP connection. 
+Only add the scalping functionalities and the condition to become a scalper and the client’s response and proper action based on the scalper’s response to client-0-16.py. Do not change anything else. Make sure all messages are logged. </t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-17.log</t>
+  </si>
+  <si>
+    <t>0/client-0-17.py</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.</t>
+  </si>
+  <si>
+    <t>There are 3 issues in the codes that you just implemented:
+1) The function become_scalper does not carry out any action. The condition to become a scalper is when a client receives a SOLDOUT message from the server, that client starts sending the scalping request SCALP &lt;user balance&gt; to buy from the other client, who just becomes a scalper.
+2) The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+3) TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+Please address these errors given the client program that you just implemented (attached as client-0-17.py). Only change the parts that are needed to be changed.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-18.log</t>
+  </si>
+  <si>
+    <t>0/client-0-18.py</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Not Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are some errors and logical gaps in the client program that you just implemented (attached as client-0-18.py): 
+•	Error: The function sell_ticket is undefined. Please add the sell_ticket function back to this implementation. Here is the sell_ticket function:
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    ticket_number, ticket_price = next(iter(ticket_db.items()))
+    sell_message = f"SELL {ticket_number}"
+    tcp_socket.sendall(sell_message.encode())
+    received_message = tcp_socket.recv(1024).decode()
+    logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+    user_balance[0] += ticket_price
+    del ticket_db[ticket_number]
+•	Error: udp_socket is undefined in the become_scalper function.
+•	The logging statement in the become_scalper function, which said that: “Client has become a scalper due to SOLDOUT” is incorrect because that client becomes the buyer who send a request to buy from a scalper, which is the other client. Hence, the logging statement should be: “Client initiated scalping transaction due to SOLDOUT”. 
+•	The scalper did not update its ticket database and the remaining balance after reselling a ticket at a double price to the other client.
+•	The last else in the handle_udp_message is not logical. If the ticket_db is empty, then it should send a message “Scalper is sold-out”, instead of sending “NOMONEY”.
+•	The TCP connection is still closed before the UDP when it is supposed to be closed after the UDP connection is closed. 
+Please address all of these points given your previous implementation (attached as client-0-18.py) and give me a complete client program. </t>
+  </si>
+  <si>
+    <t>To address the errors and logical gaps in the client program, I'll provide a comprehensive revision of the implementation, ensuring all functionalities and sequences are correctly managed.
+Here’s the complete client program with all required fixes:
+­	Complete Client Program with Fixes
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Assuming both clients know each other's address
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                break
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, addr)
+                    last_message_time = time.time()
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = next(iter(ticket_db.items()))
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent SCALP response: NOMONEY")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Sent SCALP response: Scalper is sold-out")
+	def send_requests_to_server(tcp_socket, ticket_db, user_balance):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket, ticket_db, user_balance)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+­	Key Updates and Corrections:
+•	Defined sell_ticket Function: Integrated properly with other functionalities.
+•	Corrected Scalper and Buyer Logic: Adjusted the logic to correctly reflect the roles and actions of scalpers and buyers, including managing the ticket database and user balances.
+•	Adjusted Connection Closure Order: Ensured the UDP connection closes before the TCP connection.
+This revised program addresses the specified errors and ensures logical consistency across client actions, especially in managing scalping transactions and connection closures.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-19.log</t>
+  </si>
+  <si>
+    <t>0/client-0-19.py</t>
+  </si>
+  <si>
+    <t>client-0-18-1-server-0-10, client-0-18-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-17-1-server-0-10, client-0-17-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-16-1-server-0-10, client-0-16-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-15-1-server-0-10, client-0-15-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-14-1-server-0-10, client-0-14-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-13-1-server-0-10, client-0-13-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-12-1-server-0-10, client-0-12-2-server-0-10</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Error: udp_socket is underfined in the send_requests_to_server function.</t>
+  </si>
+  <si>
+    <t>The client program you just implemented has an error: udp_socket is underfined in the send_requests_to_server function. 
+Here is the program you just implemented, please update the code to address this error:
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Assuming both clients know each other's address
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                break
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, addr)
+                    last_message_time = time.time()
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = next(iter(ticket_db.items()))
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent SCALP response: NOMONEY")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Sent SCALP response: Scalper is sold-out")
+def send_requests_to_server(tcp_socket, ticket_db, user_balance):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket, ticket_db, user_balance)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()</t>
+  </si>
+  <si>
+    <t>The issue where udp_socket is undefined in the send_requests_to_server function occurs because the udp_socket variable isn't passed to this function from the main control flow. To fix this, you'll need to pass the udp_socket to the send_requests_to_server function just like it is passed to other functions.
+Let's adjust your main function and the call to send_requests_to_server to pass the udp_socket properly.
+Corrected Implementation of the Client Program
+Here's the corrected version of your client program with the necessary changes:
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Assuming both clients know each other's address
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                break
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, addr)
+                    last_message_time = time.time()
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = next(iter(ticket_db.items()))
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent SCALP response: NOMONEY")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Sent SCALP response: Scalper is sold-out")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+In this revised version, the udp_socket is passed to the send_requests_to_server function, ensuring that it's defined and can be used when transitioning a client to a scalper. This adjustment should resolve the issue with undefined udp_socket. Also, the logical sequence of connection closures is now aligned with the specified requirements, ensuring UDP closes before TCP.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-20.log</t>
+  </si>
+  <si>
+    <t>0/client-0-20.py</t>
+  </si>
+  <si>
+    <t>client-0-20-1-server-0-10, client-0-20-2-server-0-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Error: udp_socket is underfined in the send_requests_to_server function.
+13. Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client program that you just implemented worked but there is one logical gap that needs to be handled. When the buyer receives a NOMONEY message from the scalper via the UDP connection. The buyer must then resell his ticket to the server at the original price to acquire more funds to finish the 15 automated buy transactions.
+Please address this logical gap given the program that you just implemented attached as client-0-20.py. Remember to only change the necessary parts. </t>
+  </si>
+  <si>
+    <t>To handle the scenario where the buyer receives a NOMONEY response from the scalper and needs to resell a ticket to the server to acquire more funds, we need to modify the handling of UDP messages in the handle_udp_message function. This will allow the buyer to automatically initiate a sell transaction if their funds are insufficient to purchase a ticket from the scalper.
+Here’s how to update your client program to address this gap:
+Updated Client Program with Buyer Reselling Logic
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Assuming both clients know each other's address
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                break
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                    last_message_time = time.time()
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = next(iter(ticket_db.items()))
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent SCALP response: NOMONEY")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Sent SCALP response: Scalper is sold-out")
+    elif parts[0] == "NOMONEY":
+        # If the buyer has tickets, sell one to acquire more funds
+        if ticket_db:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket))
+    udp_thread.start()
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Changes:
+•	Handle NOMONEY Response: When a buyer receives a NOMONEY response, they automatically sell a ticket if available to acquire more funds.
+•	Correct Scalper and Buyer Logic: Ensured correct responses based on the state and transaction requirements.
+This revised program ensures that buyers can respond appropriately to NOMONEY messages by reselling tickets, and maintains logical consistency with scalper and buyer interactions.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-21.log</t>
+  </si>
+  <si>
+    <t>0/client-0-21.py</t>
+  </si>
+  <si>
+    <t>client-0-21-1-server-0-10, client-0-21-2-server-0-10</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Missing condition to cover NOMONEY in the handle_udp_message function.</t>
+  </si>
+  <si>
+    <t>The implemented program successfully covers the condition when a buyer receives a NOMONEY message via UDP. 
+However, there is another logical gap in the handle_udp_message function when the buyer receives a message containing the scalped ticket ID and the doubled ticket price. When that happens, the buyer must update his ticket database and his remaining balance properly.
+There is another error in this program. Here is the error message:
+“client-0-21.py", line 119, in main
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket))
+UnboundLocalError: local variable 'tcp_socket' referenced before assignment
+Please update the program that you just implemented (attached as client-0-21.py) to address this logical gap. Only change the parts that are necessary.</t>
+  </si>
+  <si>
+    <t>To address the logical gap where the buyer must update their ticket database and remaining balance upon successfully buying a scalped ticket, and to fix the error of referencing an unbound local variable (tcp_socket before it's assigned), I'll make the necessary adjustments to the client program.
+Corrected Client Program with Updated Buyer Logic and Fixed Error
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Assuming both clients know each other's address
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                break
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                    last_message_time = time.time()
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = next(iter(ticket_db.items()))
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent SCALP response: NOMONEY")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Sent SCALP response: Scalper is sold-out")
+    elif len(parts) == 2:  # Expected format: &lt;ticket_number&gt; &lt;price&gt;
+        ticket_number, price = parts
+        ticket_db[ticket_number] = int(price)
+        user_balance[0] -= int(price)
+        logging.info(f"Bought ticket #{ticket_number} for {price}, remaining balance: {user_balance[0]}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Adjustments:
+•	Fixed Order of Variable Assignment: tcp_socket is now correctly instantiated before starting the UDP listener thread.
+•	Updated Buyer Logic: Enhanced logic for handling ticket purchases from scalpers, ensuring the buyer updates their ticket database and balance appropriately.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-22.log</t>
+  </si>
+  <si>
+    <t>0/client-0-22.py</t>
+  </si>
+  <si>
+    <t>client-0-22-1-server-0-10, client-0-22-2-server-0-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). </t>
+  </si>
+  <si>
+    <t>The program that you implemented have addressed the issues I mentioned above. However, there are 2 problems:
+•	Missing action when the buyer receives a NOMONEY message from the scalper. When the buyer does not have enough money to buy the scalped ticket at double the price, the buyer must sell his ticket back to the server at the original price and update his ticket database and balance accordingly.
+•	It looks like the client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+Please address these problems based on the program that you just implemented (attached as client-0-22.py). Only change the necessary parts and do not change anything else that is not related to the issues. Remember to log all messages sent and received along with the address that sent the message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed:  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). </t>
+  </si>
+  <si>
+    <t>There are three issues that need to be addressed in your latest implementation of the client program:
+•	The ticket selected for scalping should be an existing ticket that the scalper has with the minimum purchase price.
+•	The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). Below are the screenshots showing the last transactions of both clients.
+A screenshot showing Client A sent a SCALP request with his balance of 457 at 16:41:01,824,  and this client also received his own SCALP request at the same time, which is incorrect. (check in Experiment-Prompts and Errors doc)
+A screenshot showing Client B never received the SCALP request from Client A. When Client B sent a SCALP request with his balance of 125 at 16:41:01,825, and then the UDP connection is closed without Client B never received the response from Client A. 
+•	Distinguish the message sent and received from each client via UDP.
+Please update the client program given your previous implementation (attached as client-0-23.py) to address these issues. Only change the parts that are necessary to these issues. Remember to print out the SCALP messages that were sent and received by both clients.</t>
+  </si>
+  <si>
+    <t>To address the identified issues in your client program:
+1.	Scalper Selects Minimum Priced Ticket for Scalping: Modify the logic so the scalper always selects the ticket with the minimum purchase price available in its database to offer for scalping.
+2.	Correct Handling of Scalping Requests: Ensure the client sending the SCALP request does not process its own request; it should only be processed by the other client (the scalper).
+3.	Distinguish Messages Sent and Received: Log messages clearly to show what is sent and received, and by whom, especially for SCALP transactions.
+Here's the updated client program addressing these issues:
+Updated Client Program with Corrected Scalping and Logging Logic
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Address of the other client
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                break
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                        logging.debug(f"Received via UDP from {addr}: {message}")
+                        handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                        last_message_time = time.time()
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        # Find the minimum priced ticket to offer
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug(f"Sent NOMONEY to {addr}")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug(f"Sent Scalper is sold-out to {addr}")
+    elif parts[0].isdigit() and len(parts) == 2:  # Buyer received a ticket offer
+        ticket_number, price = parts
+        price = int(price)
+        if user_balance[0] &gt;= price:
+            ticket_db[ticket_number] = price
+            user_balance[0] -= price
+            logging.info(f"Bought ticket #{ticket_number} for {price}, remaining balance: {user_balance[0]}")
+        else:
+            logging.debug("Not enough funds to buy scalped ticket, sending back NOMONEY")
+            udp_socket.sendto(b"NOMONEY", other_client_address)
+            if ticket_db:
+                sell_ticket(tcp_socket, ticket_db, user_balance)  # Try selling a ticket to get funds
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Changes:
+•	Scalper Ticket Selection: Now selects the ticket with the minimum price.
+•	Correct Scalping Request Handling: Ensures the client sending the SCALP request does not process its own messages and corrects message routing.
+•	Message Distinguishability: Clearly logs messages sent and received, including sender and recipient details.
+This program should now correctly handle the scalping process between two clients, ensuring accurate and logical interactions as specified.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-24.log</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-23.log</t>
+  </si>
+  <si>
+    <t>0/client-0-23.py</t>
+  </si>
+  <si>
+    <t>client-0-23-1-server-0-10, client-0-23-2-server-0-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed:  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. </t>
+  </si>
+  <si>
+    <t>The client program that you just implemented has 2 things that need to be changed:
+•	While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. Only when the buyer finishes handling the scalping transaction, then can he continue sending automatic buy requests to the server. 
+•	Log all messages sent and received between scalper and buyer.
+Please update the client program that you just implemented (attached as client-0-24.py) to address the issues above. Only change the parts that are necessary.</t>
+  </si>
+  <si>
+    <t>To address the requirement for the buyer to wait until the scalping transaction completes before continuing with automated buy requests, we'll introduce synchronization between the buyer and scalper interactions. Specifically, we can use a threading event to signal completion of a scalping transaction.
+Enhanced Client Program with Synchronization and Logging
+Here's how to integrate these changes:
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Address of the other client
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                break
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                        logging.debug(f"Received via UDP from {addr}: {message}")
+                        handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                        last_message_time = time.time()
+                        transaction_complete.set()  # Signal completion of the scalping transaction
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        # Find the minimum priced ticket to offer
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug(f"Sent NOMONEY to {addr}")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug(f"Sent Scalper is sold-out to {addr}")
+    elif parts[0].isdigit() and len(parts) == 2:  # Buyer received a ticket offer
+        ticket_number, price = parts
+        price = int(price)
+        if user_balance[0] &gt;= price:
+            ticket_db[ticket_number] = price
+            user_balance[0] -= price
+            logging.info(f"Bought ticket #{ticket_number} for {price}, remaining balance: {user_balance[0]}")
+        else:
+            logging.debug("Not enough funds to buy scalped ticket, sending back NOMONEY")
+            udp_socket.sendto(b"NOMONEY", other_client_address)
+            if ticket_db:
+                sell_ticket(tcp_socket, ticket_db, user_balance)  # Try selling a ticket to get funds
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait for scalping transaction to complete
+        transaction_complete.clear()  # Clear the event for the next transaction
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially set to allow transactions to proceed
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Changes:
+•	Synchronization Added: Use a threading event to synchronize between the UDP listener (handling scalping transactions) and the main buy request loop. This ensures that the client waits for the completion of a scalping transaction before proceeding with the next buy request.
+•	Logging Enhanced: All sent and received messages are now clearly logged, along with the sender and recipient addresses.
+This updated version should align with your requirements, ensuring proper synchronization and enhanced transaction visibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client program that you just implemented does not function well. There is an error and a logical gap in this program:
+• Error: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+• Logical gap: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+Please update the program that you just implemented (attached as client-0-25.py) to address the problems above. Only change the parts that are necessary, and do not change anything else in this program. </t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed:  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18. Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.</t>
+  </si>
+  <si>
+    <t>0/client-0-24.py</t>
+  </si>
+  <si>
+    <t>client-0-24-1-server-0-10, client-0-24-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-25-1-server-0-10, client-0-25-2-server-0-10</t>
+  </si>
+  <si>
+    <t>client-0-26-1-server-0-10, client-0-26-2-server-0-10</t>
+  </si>
+  <si>
+    <t>To address the issues in your client program, we need to make sure that:
+Clients don't wait indefinitely for a scalping transaction signal if there is no active scalping transaction.
+UDP connection remains open until no messages have been exchanged for 3 minutes, ensuring that all scalping transactions are completed before the connection is closed.
+Here is the updated code, incorporating these adjustments:
+Updated Client Program with Corrected Synchronization and UDP Handling:
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Address of the other client
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                        logging.debug(f"Received via UDP from {addr}: {message}")
+                        handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                        last_message_time = time.time()
+                        transaction_complete.set()  # Signal completion of the scalping transaction
+                if time.time() - last_message_time &gt; 180:  # 3 minutes timeout
+                    logging.debug("No activity on UDP for 3 minutes, closing listener.")
+                    break
+            except socket.timeout:
+                continue
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        # Find the minimum priced ticket to offer
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug(f"Sent NOMONEY to {addr}")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug(f"Sent Scalper is sold-out to {addr}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    transaction_complete.wait()  # Wait for initial signal
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+        transaction_complete.clear()  # Clear after handling each transaction
+        transaction_complete.wait()  # Wait for the next signal
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()  # Initially clear, set by the first transaction
+    transaction_complete.set()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Changes:
+Revised Synchronization: The signal for transaction completion is now managed more appropriately, allowing transactions to proceed only after previous ones have been handled, including scalping responses.
+Correct UDP Listener Handling: UDP listeners now properly wait until there are no more messages for a specified duration before closing, ensuring all transactions are completed.
+This revised program should resolve the synchronization and timing issues, ensuring both clients handle transactions smoothly and in the correct sequence.</t>
+  </si>
+  <si>
+    <t>The client program that you just implemented does not function well. The same error still occurs:
+• Error: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+Please fix this error in the client program that you just implemented (attached as client-0-26.py)</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed:  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Not fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17.Not fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18. Not fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-27.log</t>
+  </si>
+  <si>
+    <t>0/client-0-27.py</t>
+  </si>
+  <si>
+    <t>client-0-27-1-server-0-10, client-0-27-2-server-0-10</t>
+  </si>
+  <si>
+    <t>0/client-0-26.py</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-26.log</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-25.log</t>
+  </si>
+  <si>
+    <t>0/client-0-25.py</t>
+  </si>
+  <si>
+    <t>To resolve the synchronization issue where both clients are waiting indefinitely for a scalping transaction signal before sending subsequent buy requests to the server, we need to modify the signaling mechanism to ensure it doesn't block the clients unless a scalping transaction is actually pending. Here's how to adjust the client program:
+Revised Client Program with Corrected Synchronization Logic
+	import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Address of the other client
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                        logging.debug(f"Received via UDP from {addr}: {message}")
+                        handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                        last_message_time = time.time()
+                        transaction_complete.set()  # Signal completion of the scalping transaction
+            except socket.timeout:
+                if time.time() - last_message_time &gt; 180:  # 3 minutes timeout with no activity
+                    logging.debug("No activity on UDP for 3 minutes, considering transactions complete.")
+                    transaction_complete.set()  # Ensure unblocking if waiting
+                    break
+    except Exception as e:
+        logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        # Find the minimum priced ticket to offer
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug(f"Sent NOMONEY to {addr}")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug(f"Sent Scalper is sold-out to {addr}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+            transaction_complete.wait()  # Wait specifically after becoming a scalper
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+        transaction_complete.clear()  # Clear after processing any transaction
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially set
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Changes:
+•	Improved Synchronization: The synchronization now ensures that clients do not wait indefinitely for scalping transactions unless required. The transaction_complete event is set to avoid deadlocks, particularly after detecting inactivity for 3 minutes on the UDP socket.
+•	Proper Signal Handling: Adjusted to clear the transaction_complete signal more appropriately, preventing unnecessary waits when no scalping transaction is pending.
+This adjusted program should prevent clients from waiting indefinitely and ensure smoother transaction flows between buying and scalping operations.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed:  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18. Not fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.</t>
+  </si>
+  <si>
+    <t>In the client program that you just implemented, the clients were able to conduct transactions with the server. However, there is still a logical gap.
+Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+Please update the program that you just implemented (attached as client-0-27.py) to address the problems above. Only change the parts that are necessary, and do not change anything else in this program.</t>
+  </si>
+  <si>
+    <t>To ensure that Client A remains open to handle the scalping transaction with Client B until no more messages are exchanged for a period of 3 minutes, we need to refine the timing and conditional handling around the UDP listener's closure. Specifically, the logic for checking the timeout should properly manage the wait period after the last received message before deciding to close the UDP connection.
+Here's the adjustment to the program to incorporate this logic:
+Updated Client Program with Refined UDP Connection Closure Logic:
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Address of the other client
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                        logging.debug(f"Received via UDP from {addr}: {message}")
+                        handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                        last_message_time = time.time()
+            except socket.timeout:
+                # Check if 3 minutes have passed since the last message
+                if time.time() - last_message_time &gt; 180:
+                    logging.debug("No activity on UDP for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"Error processing UDP data: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug(f"Sent NOMONEY to {addr}")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug(f"Sent Scalper is sold-out to {addr}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially set
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Changes:
+Improved Timeout Handling: Adjusted the timeout check in the udp_listener to ensure the connection remains open until there's been no activity for 3 minutes, properly addressing the issue where a client closes the connection prematurely.
+This revision should correct the problem of premature UDP closure and ensure that all transactions are fully processed before any connections are closed.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-28.log</t>
+  </si>
+  <si>
+    <t>0/client-0-28.py</t>
+  </si>
+  <si>
+    <t>client-0-28-1-server-0-10, client-0-28-2-server-0-10</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.</t>
+  </si>
+  <si>
+    <t>To correct the issue where both clients incorrectly process their own sent SCALP messages instead of only processing messages received from the other client, we need to ensure that the UDP messaging correctly distinguishes between sending and receiving clients. The problem stems from both clients using the same UDP port and IP, leading to confusion in message handling.
+Corrected Client Program with Proper UDP Message Handling
+Here's how to ensure the UDP messages are only processed if they come from the other client:
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    handlers=[
+                        logging.FileHandler("ticket_client.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Address of the other client
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    while not stop_event.is_set():
+        try:
+            data, addr = udp_socket.recvfrom(1024)
+            if data:
+                message = data.decode()
+                # Ensure the message is processed only if it comes from the other client
+                if addr != udp_socket.getsockname():
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, tcp_socket)
+                    transaction_complete.set()  # Signal completion of the scalping transaction
+        except socket.timeout:
+            continue
+        except Exception as e:
+            logging.error(f"UDP Listener error: {e}")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        # Find the minimum priced ticket to offer
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), other_client_address)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response} to {other_client_address}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait for transaction completion signal
+        transaction_complete.clear()  # Clear after handling transaction
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info("Client initiated scalping transaction due to SOLDOUT.")
+def main():
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially set
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete)
+    # Ensure UDP connection is properly managed
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly managed and closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()
+Key Adjustments:
+Correct Message Handling: The messages are now only processed if they come from the other client, effectively preventing a client from processing its own messages.
+Logging Enhancements: Additional logging has been implemented to better trace message origins and responses.
+This version of the program should resolve the issue of clients processing their own messages, ensuring that each client only handles messages received from the other client, thus facilitating correct scalping transactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program that you just implemented has an issue in the UDP communication. There is no distinction between both clients and their messages.
+•	Error: The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). In the program, both clients have the same values from getsockname (scalper) and addr (buyer addr). For this reason, none of the scalping transactions went through. Here is the screenshot showing this error:
+Client A: screenshot in word doc
+ Client B: 
+Please update this program (attached as client-0-28.py) to address this issue. Only change the necessary parts, and leave everything else as is. </t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-29.log</t>
+  </si>
+  <si>
+    <t>0/client-0-29.py</t>
+  </si>
+  <si>
+    <t>client-0-29-1-server-0-10, client-0-29-2-server-0-10</t>
+  </si>
+  <si>
+    <t>1) Trial 1: To address the ongoing issues with the client program—namely, ensuring that clients do not wait indefinitely for a scalping transaction and properly distinguishing between the UDP communications of the two clients—we need to make adjustments that ensure the correct flow of events. The necessary changes will focus on correctly signaling the completion of scalping transactions and ensuring that clients only react to messages intended for them.
+Here's the revised approach to handling these issues:
+Revised Client Program with Correct Scalping Signal and UDP Messaging Control
+import socket
+import threading
+import logging
+import time
+server_prog = 'server'  # For demo purposes
+client_prog = 'client'  # For demo purposes
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    datefmt='%Y-%m-%d %H:%M:%S',
+                    handlers=[
+                        logging.FileHandler(f"{server_prog}-{client_prog}.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port + 1)  # Address of the other client, ensuring unique ports
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    while not stop_event.is_set():
+        try:
+            data, addr = udp_socket.recvfrom(1024)
+            if data:
+                message = data.decode()
+                logging.debug(f"Received via UDP from {addr}: {message}")
+                if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                    last_message_time = time.time()
+        except socket.timeout:
+            continue
+        except Exception as e:
+            logging.error(f"Error processing UDP data: {e}")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price
+                del ticket_db[ticket_number]
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug(f"Sent NOMONEY to {addr}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()
+        transaction_complete.clear()
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        process_server_response(response, udp_socket, ticket_db, user_balance)
+def process_server_response(response, udp_socket, ticket_db, user_balance):
+    if "NOFUNDS" in response:
+        sell_ticket(tcp_socket, ticket_db, user_balance)
+    elif "SOLDOUT" in response:
+        become_scalper(user_balance, udp_socket)
+    elif response:
+        ticket_number, price = response.split()
+        ticket_db[ticket_number] = int(price)
+        user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info(f"Client initiated scalping transaction due to SOLDOUT. {message}")
+def main():
+    user_balance = [4000]
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)
+    # Initialize TCP connection
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete)
+    stop_event.set()
+    udp_thread.join()
+    tcp_socket.close()
+if __name__ == "__main__":
+    main()
+Key Adjustments:
+•	Distinguished UDP Ports: Each client now binds to a unique UDP port to prevent cross-talk and incorrect message handling.
+•	Refined Logging and Debugging: Added detailed logging to trace actions and data flow more accurately.
+This version aims to address both issues by managing the UDP communications effectively and ensuring that transactions are handled only when intended.
+2) Trial 2:
+To integrate the necessary changes while preserving the existing functionality and structure of the original client-0-28.py, we need to focus on ensuring UDP communication is correctly managed, particularly making sure messages are properly distinguished between the clients. Here's the revised version of your provided client-0-28.py script:
+Revised Client Program with Correct UDP Messaging and Existing Functionality:
+import socket
+import threading
+import logging
+import time
+server_prog = input('Enter the server program name: ')
+client_prog = input('Enter the client program name: ')
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    datefmt='%Y-%m-%d %H:%M:%S',
+                    handlers=[
+                        logging.FileHandler(f"{server_prog}-{client_prog}.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Adjust address to ensure correct client handling
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                        logging.debug(f"Received via UDP from {addr}: {message}")
+                        handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                        last_message_time = time.time()
+                        transaction_complete.set()  # Signal transaction completion
+            except socket.timeout:
+                continue
+            except Exception as e:
+                logging.error(f"UDP Listener error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price  # Update scalper's balance
+                del ticket_db[ticket_number]  # Remove the sold ticket
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug(f"Sent NOMONEY to {addr}")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug(f"Sent Scalper is sold-out to {addr}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait for transaction to complete
+        transaction_complete.clear()  # Clear the flag for next transaction
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        process_response(response, udp_socket, ticket_db, user_balance)
+def process_response(response, udp_socket, ticket_db, user_balance):
+    """ Process server response """
+    if "NOFUNDS" in response:
+        sell_ticket(tcp_socket, ticket_db, user_balance)
+    elif "SOLDOUT" in response:
+        become_scalper(user_balance, udp_socket)
+    elif response:
+        ticket_number, price = response.split()
+        ticket_db[ticket_number] = int(price)
+        user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sent SELL to server: {sell_message}, received: {received_message}")
+def become_scalper(user_balance, udp_socket):
+    """ Initiates scalping transaction due to SOLDOUT. """
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info(f"Client initiated scalping transaction due to SOLDOUT. {message}")
+def main():
+    user_balance = [4000]
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)
+    # Initialize TCP connection
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete)
+    stop_event.set()
+    udp_thread.join()
+    tcp_socket.close()
+if __name__ == "__main__":
+    main()
+Key Adjustments:
+•	The function process_response is defined to handle the server's response more clearly and is used in the main server request loop.
+4) Trial 4:
+•	Synchronization signals are carefully managed to prevent indefinite waiting.
+•	Each part of the communication process is logged for transparency and debugging purposes.
+This approach should align better with your original code structure while addressing the issues of proper UDP message handling and transaction completion signaling.
+3) Trial 3:
+Response:
+import socket
+import threading
+import logging
+import time
+server_prog = input('Enter the server program name: ')
+client_prog = input('Enter the client program name: ')
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    datefmt='%Y-%m-%d %H:%M:%S',
+                    handlers=[
+                        logging.FileHandler(f"{server_prog}-{client_prog}.log"),
+                        logging.StreamHandler()
+                    ])
+hostname = 'localhost'
+tcp_port = 12345  # TCP port for server connection
+udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+other_client_address = (hostname, udp_port)  # Adjust this if needed
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    while not stop_event.is_set():
+        try:
+            data, addr = udp_socket.recvfrom(1024)
+            if data:
+                message = data.decode()
+                if addr != udp_socket.getsockname():  # Correctly distinguishing messages
+                    logging.debug(f"Received via UDP from {addr}: {message}")
+                    handle_udp_message(message, udp_socket, ticket_db, user_balance, tcp_socket)
+                    last_message_time = time.time()
+                    transaction_complete.set()  # Only signal completion if a message was correctly processed
+        except socket.timeout:
+            continue
+        except Exception as e:
+            logging.error(f"Error processing UDP data: {e}")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, tcp_socket):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), (hostname, udp_port + 1))  # Ensure messages are sent to the right port
+                user_balance[0] += 2 * ticket_price
+                del ticket_db[ticket_number]
+                logging.debug(f"Sent SCALP response: {response}")
+            else:
+                udp_socket.sendto(b"NOMONEY", (hostname, udp_port + 1))
+                logging.debug("Sent NOMONEY")
+def send_requests_to_server(tcp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Ensuring transaction completion
+        transaction_complete.clear()
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, tcp_socket)
+        elif response:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sold ticket #{ticket_number}")
+def become_scalper(user_balance, udp_socket):
+    message = f"SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), (hostname, udp_port + 1))  # Send to specific client
+    logging.info("Initiated scalping due to SOLDOUT.")
+def main():
+    user_balance = [4000]
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)
+    # Initialize TCP connection
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, ticket_db, user_balance, transaction_complete)
+    stop_event.set()
+    udp_thread.join()
+    tcp_socket.close()
+if __name__ == "__main__":
+    main()
+4) Trial 4:
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait here if the previous loop iteration set it to wait
+        transaction_complete.clear()  # Immediately clear it to handle the next message
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+            transaction_complete.set()  # Set signal as this transaction is complete
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+            # Do not set the transaction_complete here; it will be set after UDP transaction is completed
+        else:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+            transaction_complete.set()  # Set signal as this transaction is complete
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] += 2 * ticket_price
+                del ticket_db[ticket_number]
+                logging.debug(f"Sent SCALP response: {response} to {addr}")
+                transaction_complete.set()  # Signal that this scalping transaction is complete
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent NOMONEY")
+                transaction_complete.set()  # Signal even if no money to continue loop
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Sent Scalper is sold-out")
+            transaction_complete.set()  # Ensure to signal even if sold-out to continue loop
+5) Trial 5:
+•	Revised Signal Handling Strategy:
+1.	Set the signal inside handle_udp_message only after the buyer has processed the scalper's response and potentially updated their database or handled the "NOMONEY" response.
+2.	Clear the signal at the start of each iteration in send_requests_to_server as previously mentioned, ensuring that the system is ready for the next transaction.
+Here's how you can adjust the implementation based on your clarification:
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] -= 2 * ticket_price  # Assume buyer buys the ticket
+                ticket_db[ticket_number] = 2 * ticket_price  # Update the database with new ticket info
+                logging.debug(f"Processed SCALP response: Bought {ticket_number} for {2 * ticket_price}")
+                transaction_complete.set()  # Transaction is complete, proceed with next
+            else:
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Not enough funds to buy scalped ticket")
+                transaction_complete.set()  # Still set signal, as this interaction is complete
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Scalper is sold-out, no tickets available")
+            transaction_complete.set()  # Ensure signal is set to prevent deadlock
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait here if the previous loop iteration set it to wait
+        transaction_complete.clear()  # Clear it to handle next message
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+            transaction_complete.set()  # Transaction complete, move to next
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+            # Do not set the transaction_complete here; wait for UDP transaction to complete
+        else:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+            transaction_complete.set()  # Transaction complete, move to next
+6) Trial 6:
+Thank you for providing the specific behavior that should occur when a buyer receives a "NOMONEY" message from the scalper. To address this, we'll ensure that when the buyer receives a "NOMONEY" message, they will sell one of their tickets back to the server to regain funds before proceeding. The transaction_complete signal will be set right after this action to indicate the end of the transaction, allowing the buyer to continue with further requests or handle additional scalping transactions if needed.
+Here is the refined approach for handling the "NOMONEY" scenario:
+•	Revised Implementation for NOMONEY Handling in UDP Message Processing
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                # Buyer can afford the scalped ticket
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                user_balance[0] -= 2 * ticket_price
+                ticket_db[ticket_number] = 2 * ticket_price
+                logging.debug(f"Bought scalped ticket: {ticket_number} for {2 * ticket_price}")
+            else:
+                # Buyer cannot afford the scalped ticket, sell one of their own tickets
+                sell_ticket(tcp_socket, ticket_db, user_balance)
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Not enough funds, sold one ticket to server")
+            transaction_complete.set()  # Transaction is complete, proceed with next
+        else:
+            # No tickets to scalp, inform the other client
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Scalper is sold-out, no tickets available")
+            transaction_complete.set()  # Set signal even if sold-out to continue loop
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server at original price to acquire more funds. """
+    if ticket_db:
+        ticket_number, ticket_price = next(iter(ticket_db.items()))
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]
+        logging.debug(f"Sold ticket back to server: {ticket_number} for {ticket_price}")
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait here if the previous loop iteration set it to wait
+        transaction_complete.clear()  # Clear it to handle next message
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+            transaction_complete.set()  # Transaction complete, move to next
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket)
+            # Do not set the transaction_complete here; wait for UDP transaction to complete
+        else:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+            transaction_complete.set()  # Transaction complete, move to next
+Key Adjustments:
+•	NOMONEY Response Handling: When the buyer cannot afford a scalped ticket, they will sell one of their own tickets back to the server to regain funds. This handling ensures that the buyer is always ready to participate in the next buying or scalping opportunity.
+•	Transaction Completion Signal: Properly managed after selling a ticket back to the server or after buying a scalped ticket, ensuring smooth continuation of transactions without unnecessary delays.
+7) Trial 7:
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Handles incoming messages from the other client. """
+    parts = message.split()
+    if parts[0] == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            # Finding the cheapest ticket to potentially sell if needed
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            if buyer_balance &gt;= 2 * ticket_price:
+                # Buyer can afford the scalped ticket
+                response = f"{ticket_number} {2 * ticket_price}"
+                udp_socket.sendto(response.encode(), addr)
+                # Buyer buys the ticket
+                user_balance[0] -= 2 * ticket_price
+                ticket_db[ticket_number] = 2 * ticket_price  # Updating ticket price to doubled
+                logging.debug(f"Bought scalped ticket: {ticket_number} for {2 * ticket_price}")
+            else:
+                # Buyer cannot afford the scalped ticket, send NOMONEY and trigger sell
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Not enough funds to buy scalped ticket, sent NOMONEY")
+                # Sell one of their own tickets after sending NOMONEY
+                sell_ticket(tcp_socket, ticket_db, user_balance)
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("Scalper is sold-out, no tickets available")
+        transaction_complete.set()  # Signal that the transaction process can proceed
+def sell_ticket(tcp_socket, ticket_db, user_balance):
+    """ Sells a ticket back to the server at the original price to acquire more funds. """
+    if ticket_db:
+        ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+        sell_message = f"SELL {ticket_number}"
+        tcp_socket.sendall(sell_message.encode())
+        received_message = tcp_socket.recv(1024).decode()
+        user_balance[0] += ticket_price
+        del ticket_db[ticket_number]  # Remove ticket after selling
+        logging.debug(f"Sold ticket back to server: {ticket_number} for {ticket_price}")
+# The other parts of the script should follow the structure and logic defined earlier.
+8) Trial 8:
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Processes received messages via UDP and performs actions based on the message type. """
+    parts = message.split()
+    command = parts[0]
+    if command == "SCALP":
+        # This client is the scalper and should respond to a scalping request
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            doubled_price = 2 * ticket_price
+            if buyer_balance &gt;= doubled_price:
+                # Buyer can afford the scalped ticket, proceed with transaction
+                response = f"{ticket_number} {doubled_price}"
+                udp_socket.sendto(response.encode(), addr)
+                # Update scalper's database and balance
+                del ticket_db[ticket_number]
+                user_balance[0] += doubled_price
+                logging.debug(f"Scalped ticket {ticket_number} sold for {doubled_price}")
+            else:
+                # Buyer cannot afford, send NOMONEY
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent NOMONEY to buyer due to insufficient funds")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("No tickets available to scalp")
+    elif parts[0].isdigit() and len(parts) == 2:
+        # This client is the buyer and needs to update their ticket database and balance
+        ticket_number, ticket_price = parts
+        ticket_price = int(ticket_price)
+        if user_balance[0] &gt;= ticket_price:
+            ticket_db[ticket_number] = ticket_price
+            user_balance[0] -= ticket_price
+            logging.debug(f"Bought scalped ticket {ticket_number} for {ticket_price}")
+            transaction_complete.set()  # Complete the transaction
+        else:
+            udp_socket.sendto(b"NOMONEY", addr)
+            logging.debug("Cannot buy scalped ticket due to insufficient funds")
+    elif message == "NOMONEY":
+        # Buyer received NOMONEY, must sell a ticket to acquire funds
+        if ticket_db:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        transaction_complete.set()  # After selling a ticket, transaction is complete
+    else:
+        # Log any other unexpected messages
+        logging.debug(f"Received unexpected message: {message}")
+9) Trial 9:
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Processes received messages via UDP and performs actions based on the message type. """
+    parts = message.split()
+    command = parts[0]
+    if command == "SCALP":
+        # This client is the scalper and should respond to a scalping request
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            doubled_price = 2 * ticket_price
+            if buyer_balance &gt;= doubled_price:
+                # Buyer c</t>
+  </si>
+  <si>
+    <t>1)	Trial 1:
+Prompt: The client program that you just implemented does not function well. The previous errors were already fixed in client-0-28.py occurred again:
+•	Error: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+•	No distinction between the communication between both clients via UDP.
+This time, based on client-0-28.py, which already addressed the first issue, update this program so that it does not have the second problem: distinguish the messages of each client from each other for the scalping transactions to work. Only change the necessary parts and leave the rest alone. 
+Below is the client-0-28.py: &lt;code paste here&gt;
+2)	Trial 2:
+Prompt: This implemented program left out important functions that were included in the original client-0-28.py. Please incorporate the changes with the existing functions and do not change anything else.
+3)	Trial 3:
+Prompt: This implementation brings back the previous errors that were already fixed.
+•	The signal of transaction_complete will never be released in the second round of the for loop because there is no scalping transaction yet. This signal should be released after the scalping transaction is done. 
+•	There is no distinction between both clients and their messages via UDP because the condition addr != udp_socket.getsockname() is never true. Both clients have the same address and udp_socket.getsockname() because the client program is executed on the same computer.
+We have already gone back and forth with these issues multiple times. Please make sure your implementation fixes these problems. Here is the client-0-28.py program. Do not change anything else besides the parts that are necessary to fix these issues: &lt;past program here&gt;
+4)	Trial 4:
+Prompt: The program you just implemented still have the same errors that I mentioned above. Let’s fix each error one by one: 
+The signal transaction_complete is currently set at the beginning of the loop in the send_requests_to_server function. This causes the transaction between the server and clients to go through the first time, but stuck at the second time. This is because the signal transaction_complete will never be released in the second round of the for loop because there is no scalping transaction yet. Scalping transaction only happen when one client receives a SOLDOUT message from a server. The signal transaction_complete needs to be released after a scalping transaction is done. Where do you think the signal should be placed in this program?
+5) Trial 5: 
+The scalping transaction is done once the buyer receives a message from the scalper and updates his database accordingly if he buys the scalped ticket.
+6) Trial 6:
+Prompt: 
+When the buyer receives a NOMONEY message from the scalper, the buyer must resell one of his ticket to the server at the original price to acquire more funds, then the transaction_complete signal can be released.
+7) Trial 7:
+Prompt:
+The NOMONEY message should be sent to the buyer first. Once the buyer receives the NOMONEY message, then he can resell his ticket to the server at the original price, and then the transaction_complete signal can be released.
+8) Trial 8:
+Prompt: 
+The logic of the handle_udp_message function is incorrect. This function is supposed to process the received message via the UDP connection and perform some actions based on the message. The handle_udp_message function that you just implemented are combining the message received, the actions to perform for both scalper and buyer in the same place, which is incorrect. The scalper is supposed to send the message to the buyer, as the buyer receives the message, he acts accordingly. So, the handle_udp_message function should create condition for different messages that a buyer and a scalper can receive:
+•	If message received starts with SCALP, find the cheapest ticket, double the ticket amount, compare it to the buyer’s balance. If it is less than or equal to the buyer’s balance, remove that ticket from the scalper’s database and update the scalper’s balance, and then send the ticket ID and ticket price to the buyer. 
+If it is greater than the buyer’s balance, send a NOMONEY message to the buyer.
+•	If message received contains the ticket ID and ticket price, the buyer will need to update his ticket database and balance. The transaction_complete signal is released.
+•	If the message received is NOMONEY, then the buyer will sell one of his ticket to the server to acquire additional funds. The transaction_complete signal is released once the sell transaction is complete.
+•	The else case will cover the responses that does not fit to any of the conditions above and log that message.
+Please implement the handle_udp_message function based on this flow.
+9) Trial 9:
+Prompt: 
+In the handle_udp_message function, if the buyer receives a message containing the ticket ID and its price, meaning that the buyer has enough money to buy it. Hence, the buyer should only added the ticket to his database and subtract the received ticket price from his balance. Then, the transaction_complete signal is released.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-30.log</t>
+  </si>
+  <si>
+    <t>0/client-0-30.py</t>
+  </si>
+  <si>
+    <t>client-0-30-1-server-0-10, client-0-30-2-server-0-10</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Not fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Not fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Not fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-31.log</t>
+  </si>
+  <si>
+    <t>0/client-0-31.py</t>
+  </si>
+  <si>
+    <t>client-0-31-1-server-0-10, client-0-31-2-server-0-11</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-32.log</t>
+  </si>
+  <si>
+    <t>0/client-0-32.py</t>
+  </si>
+  <si>
+    <t>client-0-32-1-server-0-10, client-0-32-2-server-0-12</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-33.log</t>
+  </si>
+  <si>
+    <t>0/client-0-33.py</t>
+  </si>
+  <si>
+    <t>client-0-33-1-server-0-10, client-0-33-2-server-0-13</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-34.log</t>
+  </si>
+  <si>
+    <t>0/client-0-34.py</t>
+  </si>
+  <si>
+    <t>client-0-34-1-server-0-10, client-0-34-2-server-0-14</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-35.log</t>
+  </si>
+  <si>
+    <t>0/client-0-35.py</t>
+  </si>
+  <si>
+    <t>client-0-35-1-server-0-10, client-0-35-2-server-0-15</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-36.log</t>
+  </si>
+  <si>
+    <t>0/client-0-36.py</t>
+  </si>
+  <si>
+    <t>client-0-36-1-server-0-10, client-0-36-2-server-0-16</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-37.log</t>
+  </si>
+  <si>
+    <t>0/client-0-37.py</t>
+  </si>
+  <si>
+    <t>client-0-37-1-server-0-10, client-0-37-2-server-0-17</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-38.log</t>
+  </si>
+  <si>
+    <t>0/client-0-38.py</t>
+  </si>
+  <si>
+    <t>client-0-38-1-server-0-10, client-0-38-2-server-0-18</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-39.log</t>
+  </si>
+  <si>
+    <t>0/client-0-39.py</t>
+  </si>
+  <si>
+    <t>client-0-39-1-server-0-10, client-0-39-2-server-0-19</t>
+  </si>
+  <si>
+    <t>server-0-10-client-0-40.log</t>
+  </si>
+  <si>
+    <t>0/client-0-40.py</t>
+  </si>
+  <si>
+    <t>client-0-40-1-server-0-10, client-0-40-2-server-0-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Part 1:
+The handle_udp_message function is now functioning properly. However, there is another issue that needs to be addressed.
+The issue is in the function udp_listener. Both clients were not able to distinguish the messages they sent and received because both clients have the same address and port as the client program is running on the same computer. Hence, the condition if addr != udp_socket.getsockname() is never True, which prevents the scalping transaction to be done.
+Please update the function udp_listener to address this issue. Here is the udp_listener function: &lt;paste code here&gt;.
+2.	Part 2:
+Prompt: Let’s proceed with Option 2: Embed Client Identifiers in Messages.
+3.	Part 3:
+Here are the original functions, please incorporate these changes to these functions:&lt;paste code here&gt;.
+4.	Part 4:
+Prompt: Where is the client id initialized? Here is my main function: &lt;main()&gt;
+</t>
+  </si>
+  <si>
+    <t>1. Part 1:
+Response:
+To resolve the issue where both clients cannot distinguish messages they sent from those they receive because they are running on the same computer and using the same address and port, we need to introduce a mechanism to ensure each client uses a unique identifier or address. Since changing the address might not be feasible if they must listen on the same port, you can differentiate the clients by using two different ports for the two clients, or by ensuring each client can ignore messages it sent itself based on unique identifiers embedded in the messages.
+Option 1: Use Different Ports for Each Client
+If possible, assign each client a unique UDP port. This means that when setting up udp_listener, you should determine which port each client will listen to and send to, ensuring they are not the same.
+python
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, listen_port, other_port):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    udp_socket.bind((hostname, listen_port))
+    other_client_address = (hostname, other_port)
+    ...
+Option 2: Embed Client Identifiers in Messages
+Another approach is to embed client identifiers in the messages sent. Each client would then check the identifier in each received message to determine if it originated from itself or the other client.
+Here's how you might implement message filtering based on identifiers:
+python
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    sender_id, msg_content = message.split(':', 1)  # Assuming messages are prefixed with an ID
+                    if sender_id != client_id:  # Only process if from other client
+                        logging.debug(f"Received via UDP from {addr}: {msg_content}")
+                        handle_udp_message(msg_content, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete)
+                        last_message_time = time.time()
+            except socket.timeout:
+                # Check if 3 minutes have passed since the last message
+                if time.time() - last_message_time &gt; 180:
+                    logging.debug("No activity on UDP for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"Error processing UDP data: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+Each client would need to send messages prefixed with its identifier:
+def send_udp_message(udp_socket, message, other_client_address, client_id):
+    """ Prefix messages with client ID before sending. """
+    prefixed_message = f"{client_id}:{message}"
+    udp_socket.sendto(prefixed_message.encode(), other_client_address)
+Selecting the Right Approach
+Depending on your specific application setup (e.g., whether you can use multiple ports or need to keep to a single port due to network restrictions), choose the method that best suits your environment. Using different ports is simpler if feasible, while embedding identifiers requires more changes to the message handling but can work within a single port configuration.
+2. Part 2:
+Great choice! Embedding client identifiers in the messages is a flexible method to handle communications between clients, especially when using the same port or running on the same machine. This method will allow each client to distinguish between its own messages and those received from the other client.
+Here's how to implement Option 2, where each message will be prefixed with a client identifier:
+Updated udp_listener Function with Client Identifiers
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    sender_id, msg_content = message.split(':', 1)  # Messages are prefixed with an ID
+                    if sender_id != client_id:  # Only process messages from the other client
+                        logging.debug(f"Received via UDP from {addr}: {msg_content}")
+                        handle_udp_message(msg_content, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete)
+            except socket.timeout:
+                # Check if 3 minutes have passed since the last message
+                if time.time() - last_message_time &gt; 180:
+                    logging.debug("No activity on UDP for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"Error processing UDP data: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+Function to Send UDP Messages with Client Identifier:
+def send_udp_message(udp_socket, message, other_client_address, client_id):
+    """ Sends a UDP message prefixed with the client's identifier. """
+    prefixed_message = f"{client_id}:{message}"
+    udp_socket.sendto(prefixed_message.encode(), other_client_address)
+Updated handle_udp_message to Process Messages Based on Content
+You may also need to update handle_udp_message function to ensure it is compatible with the new message format:
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Processes received messages via UDP and performs actions based on the message type. """
+    parts = message.split()
+    command = parts[0]
+    if command == "SCALP":
+        # Assuming the scalper sends SCALP:request_id:balance or similar
+        request_id, buyer_balance = parts[1], int(parts[2])
+        # Logic for scalper responding to SCALP request...
+    elif command.isdigit() and len(parts) == 2:
+        # Buyer processing a ticket purchase
+        ticket_number, ticket_price = command, int(parts[1])
+        ticket_db[ticket_number] = ticket_price
+        user_balance[0] -= ticket_price
+        logging.debug(f"Bought ticket {ticket_number} for {ticket_price}")
+        transaction_complete.set()
+    elif message == "NOMONEY":
+        # Buyer needs to sell a ticket to acquire funds
+        sell_ticket(tcp_socket, ticket_db, user_balance)
+        transaction_complete.set()
+    else:
+        logging.debug(f"Received unrecognized message format: {message}")
+Integrating These Changes
+You will need to ensure that both clients are initialized with unique identifiers and that the correct UDP socket and address settings are used for sending and receiving messages. Ensure to pass client_id and other_client_address appropriately when calling send_udp_message and initializing udp_listener.
+This setup ensures clear communication, with each client only responding to messages intended for it, thus allowing efficient and accurate handling of the scalping transactions.
+3. Part 3:
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    print(f"Received via UDP from {addr} to {udp_socket.getsockname()}: {message}")
+                    if addr != udp_socket.getsockname():  # Ensure not processing own messages
+                        logging.debug(f"Received via UDP from {addr}: {message}")
+                        handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket)
+                        last_message_time = time.time()
+            except socket.timeout:
+                # Check if 3 minutes have passed since the last message
+                if time.time() - last_message_time &gt; 180:
+                    logging.debug("No activity on UDP for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"Error processing UDP data: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Processes received messages via UDP and performs actions based on the message type. """
+    parts = message.split()
+    command = parts[0]
+    if command == "SCALP":
+        # This client is the scalper and should respond to a scalping request
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            doubled_price = 2 * ticket_price
+            if buyer_balance &gt;= doubled_price:
+                # Buyer can afford the scalped ticket, proceed with transaction
+                response = f"{ticket_number} {doubled_price}"
+                udp_socket.sendto(response.encode(), addr)
+                # Update scalper's database and balance
+                del ticket_db[ticket_number]
+                user_balance[0] += doubled_price
+                logging.debug(f"Scalped ticket {ticket_number} sold for {doubled_price}")
+            else:
+                # Buyer cannot afford, send NOMONEY
+                udp_socket.sendto(b"NOMONEY", addr)
+                logging.debug("Sent NOMONEY to buyer due to insufficient funds")
+        else:
+            udp_socket.sendto(b"Scalper is sold-out", addr)
+            logging.debug("No tickets available to scalp")
+    elif parts[0].isdigit() and len(parts) == 2:
+        # This client is the buyer and needs to update their ticket database and balance
+        ticket_number, ticket_price = parts
+        ticket_price = int(ticket_price)
+        # Update buyer's ticket database and balance
+        ticket_db[ticket_number] = ticket_price
+        user_balance[0] -= ticket_price
+        logging.debug(f"Bought scalped ticket {ticket_number} for {ticket_price}")
+        transaction_complete.set()  # Complete the transaction after updating database and balance
+    elif message == "NOMONEY":
+        # Buyer received NOMONEY, must sell a ticket to acquire funds
+        if ticket_db:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        transaction_complete.set()  # After selling a ticket, transaction is complete
+    else:
+        # Log any other unexpected messages
+        logging.debug(f"Received unexpected message: {message}")
+4. Part 4:
+To incorporate the client identifier into your application, you need to assign a unique identifier to each client instance when initializing the system. This identifier can then be used when sending and receiving messages to distinguish between messages originating from different client instances. Here's how you can modify your main function to include a client identifier initialization and use it in the communication:
+Updated Main Function with Client ID Initialization
+import socket
+import threading
+import logging
+import time
+# Configure logging
+logging.basicConfig(level=logging.DEBUG,
+                    format='%(asctime)s - %(levelname)s - %(message)s',
+                    datefmt='%Y-%m-%d %H:%M:%S',
+                    handlers=[
+                        logging.FileHandler("client.log"),
+                        logging.StreamHandler()
+                    ])
+def main():
+    hostname = 'localhost'
+    tcp_port = 12345  # TCP port for server connection
+    udp_port = tcp_port + 1  # UDP port is one more than the TCP port
+    client_id = input("Enter this client's unique identifier (e.g., Client1): ")  # Unique identifier for this client
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially set
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete, client_id)
+    # Ensure UDP connection is closed first
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+if __name__ == "__main__":
+    main()</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1).</t>
+  </si>
+  <si>
+    <t>I incorporated the change to functions udp_listenter(), handle_udp_message(), send_requests_to_server() and main(). However, there is an error in parsing UDP message: Error processing UDP data: not enough values to unpack (expected 2, got 1).
+Below are the related functions, please update them accordingly to fix this error. Only change the necessary parts and do not change anything else. The goal is to help the client identify the other client’s message via UDP and perform actions based on the received message.
+- Function udp_listener():
+- Function handle_udp_message():
+- Function send_requests_to_server():
+- Function main():
+I also included the smaller functions that are used in the function send_requests_to_server() below.
+- Function sell_ticket():
+- Function become_scalper():</t>
+  </si>
+  <si>
+    <t>The error you're encountering (not enough values to unpack) in the udp_listener function typically occurs when the expected split of the message into two parts using a delimiter (:) does not find the delimiter in the message. This can happen if a message is received that doesn't contain the client identifier as expected, perhaps due to a message being sent without the appropriate format or an external, malformed packet.
+To address this issue and ensure robust handling, you should add error checking to manage cases where the message format does not meet the expected structure. Here’s how you can update the udp_listener function to handle cases where messages may not contain the expected delimiter, avoiding the unpacking error:
+Updated udp_listener Function with Error Handling
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if ':' in message:  # Check if the delimiter is present
+                        sender_id, actual_message = message.split(':', 1)  # Split message to get the sender's ID
+                        print(f"Received via UDP from {addr} to {udp_socket.getsockname()}: {actual_message}")
+                        if sender_id != client_id:  # Only process messages not sent by this client
+                            logging.debug(f"Received via UDP from {addr}: {actual_message}")
+                            handle_udp_message(actual_message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete)
+                            last_message_time = time.time()
+                    else:
+                        logging.error(f"Malformed message received: {message}")
+            except socket.timeout:
+                # Check if 3 minutes have passed since the last message
+                if time.time() - last_message_time &gt; 180:
+                    logging.debug("No activity on UDP for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"Error processing UDP data: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+Key Changes
+•	Delimiter Check: Before attempting to unpack the message into sender_id and actual_message, the function now checks if the message contains the delimiter (:). This prevents the unpacking error when a message does not follow the expected format.
+•	Error Logging: If a message is received without the expected delimiter, an error log is generated to notify of the malformed message, which helps in debugging and ensuring system robustness.
+These updates ensure that your system can gracefully handle unexpected or incorrectly formatted messages without crashing or raising exceptions. It's also a good practice to audit where messages are sent to ensure they all include the client identifier as expected, thereby adhering to the communication protocol you've designed.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.</t>
+  </si>
+  <si>
+    <t>The updated udp_listener() has identified that the message received was not properly formatted. There is no “:” in the message. Here is the error log: ERROR - Malformed message received: SCALP 203. 
+Here are the related functions, please update them accordingly to address this error. Do not change anything else:
+- Function udp_listener():
+- Function handle_udp_message():
+- Function send_requests_to_server():
+- Function main():
+I also included the smaller functions that are used in the function send_requests_to_server() below.
+- Function sell_ticket():
+- Function become_scalper():</t>
+  </si>
+  <si>
+    <t>The error logs indicate that messages sent via the UDP socket are missing the expected client identifier prefix. This seems to stem from the way messages are formatted when sent from the become_scalper function, which is not currently including the client_id in the message. We need to adjust the become_scalper function to include the client identifier in the messages it sends. This change will ensure that every message sent via UDP includes this necessary identifier, allowing the receiving function (udp_listener) to process it correctly.
+Updated become_scalaper Function to Include client_id:
+def become_scalper(user_balance, udp_socket, client_id, other_client_address):
+    """ Initiates scalping transaction due to SOLDOUT, including client identifier in the message. """
+    message = f"{client_id}:SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info(f"Client initiated scalping transaction due to SOLDOUT. Sent: {message}")
+You will also need to update where become_scalper is called in the send_requests_to_server function to pass the necessary client_id and other_client_address:
+Update send_requests_to_server to Include Additional Parameters in the become_scalper Call:
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete, client_id, other_client_address):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait here if the previous loop iteration set it to wait
+        transaction_complete.clear()  # Clear it to handle next message
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+            transaction_complete.set()  # Transaction complete, move to next
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket, client_id, other_client_address)
+            # Do not set the transaction_complete here; wait for UDP transaction to complete
+        else:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+            transaction_complete.set()  # Transaction complete, move to next
+Ensure other_client_address and client_id Are Passed in Main
+Make sure the main function correctly initializes other_client_address and passes client_id and other_client_address to functions that need them:
+def main():
+    client_id = input("Enter this client's unique identifier (e.g., Client1): ")  # Unique identifier for this client
+    other_client_address = ('localhost', 12346)  # Example, ensure this is set appropriately
+    # Initialize and use udp_socket, tcp_socket as before
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete, client_id, other_client_address)
+    # Closing connections and threads as before
+These updates ensure that the messages are correctly formatted with client_id when sent, allowing udp_listener to differentiate between self-sent and externally received messages, thus solving the issue of malformed messages.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.
+21. Error in received message via UDP: ERROR - Malformed message received: NOMONEY</t>
+  </si>
+  <si>
+    <t>1. Part 1:
+I incorporated the changes that you suggested in the following functions: become_scalper, send_requests_to_server, and main. The clients were able to distinguish their messages from each other. However, there is another error in the UDP messages: ERROR - Malformed message received: NOMONEY.
+Here are the related functions: 
+- Function udp_listener():
+- Function handle_udp_message():
+- Function send_requests_to_server():
+- Function main(): 
+I also included the smaller functions that are used in the function send_requests_to_server() below. 
+- Function sell_ticket():
+- Function become_scalper():
+Please update these functions if necessary to address this error, and do not change anything else. 
+2. Part 2:
+Please return the entire modified handle_udp_message function.</t>
+  </si>
+  <si>
+    <t>1. Part 1:
+The error "Malformed message received: NOMONEY" indicates that when the message "NOMONEY" is sent, it's not being formatted correctly with the client identifier. This error arises because the "NOMONEY" message is sent without the client identifier prefix, which is necessary for the receiving function to process it correctly under the new system that uses client identifiers.
+Let's adjust the become_scalper function where "NOMONEY" is sent, to ensure every message sent includes the appropriate client identifier:
+Update the become_scalper Function to Properly Format All Outgoing Messages
+def become_scalper(user_balance, udp_socket, client_id, other_client_address):
+    """ Initiates scalping transaction due to SOLDOUT, including client identifier in the message. """
+    message = f"{client_id}:SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info(f"Client initiated scalping transaction due to SOLDOUT. Sent: {message}")
+Update the Part Where "NOMONEY" is Sent
+You need to ensure that every outgoing UDP message, including status messages like "NOMONEY", must include the client_id. Here's how to modify the relevant section in handle_udp_message:
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete):
+    """ Processes received messages via UDP and performs actions based on the message type. """
+    parts = message.split()
+    command = parts[0]
+    if command == "SCALP":
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            doubled_price = 2 * ticket_price
+            if buyer_balance &gt;= doubled_price:
+                response = f"{ticket_number} {doubled_price}"
+                response_with_id = f"{client_id}:{response}"  # Include client_id in the response
+                udp_socket.sendto(response_with_id.encode(), addr)
+                del ticket_db[ticket_number]
+                user_balance[0] += doubled_price
+                logging.debug(f"Scalped ticket {ticket_number} sold for {doubled_price}")
+            else:
+                response_with_id = f"{client_id}:NOMONEY"  # Include client_id in the response
+                udp_socket.sendto(response_with_id.encode(), addr)
+                logging.debug("Sent NOMONEY to buyer due to insufficient funds")
+        else:
+            response_with_id = f"{client_id}:Scalper is sold-out"  # Include client_id
+            udp_socket.sendto(response_with_id.encode(), addr)
+            logging.debug("No tickets available to scalp")
+    ...
+Key Changes:
+•	Prefix All Outgoing Messages with client_id: By including the client_id in every message, you ensure that the receiving end can properly process and attribute messages, avoiding issues with malformed messages.
+•	Ensure Consistency Across All UDP Communications: It's crucial that all parts of your system that send messages via UDP use this new format to maintain consistency and ensure the system's reliability.
+These changes should correct the issue with malformed messages and ensure that all messages sent via UDP include the necessary identifiers for proper processing on the receiving end.
+2. Part 2:
+Certainly! Below is the entire modified handle_udp_message function with the correct formatting for sending messages, including client identifiers, to ensure all outgoing messages are properly constructed and can be accurately processed by the receiving client.
+Entire Modified handle_udp_message Function
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete, client_id):
+    """ Processes received messages via UDP and performs actions based on the message type. """
+    parts = message.split()
+    command = parts[0]
+    if command == "SCALP":
+        # This client is the scalper and should respond to a scalping request
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            doubled_price = 2 * ticket_price
+            if buyer_balance &gt;= doubled_price:
+                # Buyer can afford the scalped ticket, proceed with transaction
+                response = f"{ticket_number} {doubled_price}"
+                response_with_id = f"{client_id}:{response}"  # Include client_id in the response
+                udp_socket.sendto(response_with_id.encode(), addr)
+                # Update scalper's database and balance
+                del ticket_db[ticket_number]
+                user_balance[0] += doubled_price
+                logging.debug(f"Scalped ticket {ticket_number} sold for {doubled_price}")
+            else:
+                # Buyer cannot afford, send NOMONEY
+                response_with_id = f"{client_id}:NOMONEY"  # Include client_id in the response
+                udp_socket.sendto(response_with_id.encode(), addr)
+                logging.debug("Sent NOMONEY to buyer due to insufficient funds")
+        else:
+            response_with_id = f"{client_id}:Scalper is sold-out"  # Include client_id
+            udp_socket.sendto(response_with_id.encode(), addr)
+            logging.debug("No tickets available to scalp")
+    elif command.isdigit() and len(parts) == 2:
+        # This client is the buyer and needs to update their ticket database and balance
+        ticket_number, ticket_price = parts
+        ticket_price = int(ticket_price)
+        # Update buyer's ticket database and balance
+        ticket_db[ticket_number] = ticket_price
+        user_balance[0] -= ticket_price
+        logging.debug(f"Bought scalped ticket {ticket_number} for {ticket_price}")
+        transaction_complete.set()  # Complete the transaction after updating database and balance
+    elif message == "NOMONEY":
+        # Buyer received NOMONEY, must sell a ticket to acquire funds
+        if ticket_db:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        transaction_complete.set()  # After selling a ticket, transaction is complete
+    else:
+        # Log any other unexpected messages
+        logging.debug(f"Received unexpected message: {message}")</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. Fixed: Error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.
+21. Fixed: Error in received message via UDP: ERROR - Malformed message received: NOMONEY
+22. Did not log messages sent via TCP.
+23. ERROR - Error processing UDP data: handle_udp_message() missing 1 required positional argument: 'client_id'</t>
+  </si>
+  <si>
+    <t>I have incorporated the changes you suggested in the related functions. However, there 2 things that need to be addressed:
+•	Did not log messages sent via TCP
+•	ERROR - Error processing UDP data: handle_udp_message() missing 1 required positional argument: 'client_id'
+Here are the related functions:
+- Function udp_listener():
+- Function handle_udp_message():
+- Function send_requests_to_server():
+- Function main(): 
+I also included the smaller functions that are used in the function send_requests_to_server() below. 
+- Function sell_ticket():
+- Function become_scalper():
+Please update these functions if necessary to address this error, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>The issues you're facing can be addressed with a few adjustments:
+1.	Logging TCP Messages: Ensure that all outgoing TCP messages are logged similarly to how you handle incoming messages.
+2.	Missing client_id Argument in handle_udp_message() Calls: Ensure that the client_id is passed correctly in all function calls, specifically in the udp_listener function when calling handle_udp_message.
+Let's make the necessary corrections to address these issues.
+1. Update send_requests_to_server() to Log Outgoing TCP Messages
+def send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete, client_id, other_client_address):
+    """ Handles automated buy/sell requests to the server """
+    for _ in range(15):
+        transaction_complete.wait()  # Wait here if the previous loop iteration set it to wait
+        transaction_complete.clear()  # Clear it to handle next message
+        message = f"BUY {user_balance[0]}"
+        tcp_socket.sendall(message.encode())
+        logging.debug(f"Sent to server: {message}")  # Log outgoing message
+        response = tcp_socket.recv(1024).decode()
+        logging.debug(f"Received from server: {response}")
+        if "NOFUNDS" in response:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+            transaction_complete.set()  # Transaction complete, move to next
+        elif "SOLDOUT" in response:
+            become_scalper(user_balance, udp_socket, client_id, other_client_address)
+        else:
+            ticket_number, price = response.split()
+            ticket_db[ticket_number] = int(price)
+            user_balance[0] -= int(price)
+            transaction_complete.set()  # Transaction complete, move to next
+2. Ensure handle_udp_message() is Called with the Correct Arguments
+Make sure the client_id argument is passed when calling handle_udp_message() from udp_listener(). It looks like you already have this in your function definition but verify this when invoking:
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if ':' in message:
+                        sender_id, actual_message = message.split(':', 1)
+                        print(f"Received via UDP from {sender_id} {addr} to {client_id} {udp_socket.getsockname()}: {actual_message}")
+                        if sender_id != client_id:
+                            logging.debug(f"Received via UDP from {addr}: {actual_message}")
+                            handle_udp_message(actual_message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete, client_id)  # Correct call with client_id
+                            last_message_time = time.time()
+                    else:
+                        logging.error(f"Malformed message received: {message}")
+            except socket.timeout:
+                if time.time() - last_message_time &gt; 180:
+                    logging.debug("No activity on UDP for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"Error processing UDP data: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+Ensure that when you're invoking handle_udp_message from any other place (if applicable), the client_id is also included as seen in the snippet above.
+These adjustments should resolve the error regarding the missing argument and ensure all outgoing TCP messages are logged correctly, offering a complete trace of communication for debugging and monitoring purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. Fixed: Error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.
+21. Fixed: Error in received message via UDP: ERROR - Malformed message received: NOMONEY
+22. Fixed: Did not log messages sent via TCP.
+23. Fixed: ERROR - Error processing UDP data: handle_udp_message() missing 1 required positional argument: 'client_id'.
+24. Client 1 finished 15 buy queries with the server and logged out, while Client 2 just received a SOLDOUT message from the server, so Client 2 initiated the scalping request to Client 1. Since Client 1 already logged out, the scalping request was never processed, leaving Client 2 waiting. 
+25. Clients did not print their ticket database and remaining balance when exited.
+</t>
+  </si>
+  <si>
+    <t>The communications are correctly logged. However, there 2 issues that need to be addressed:
+•	Client 1 finished 15 buy queries with the server and logged out, while Client 2 just received a SOLDOUT message from the server, so Client 2 initiated the scalping request to Client 1. Since Client 1 already logged out, the scalping request was never processed, leaving Client 2 waiting. Client 1 should have waited for a period of time to ensure that he can handle all scalping requests if any from Client 2. 
+•	Clients did not print their ticket database and remaining balance when exited.
+Here are the related functions:
+- Function udp_listener():
+- Function handle_udp_message():
+- Function main(): 
+Please update these functions if necessary to address this error, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>To address the issues you've highlighted:
+1.	Ensure that clients wait for a period of time to handle all pending scalping requests - We can implement a waiting mechanism after the client has finished all buy requests to the server to ensure it handles any incoming scalping requests before closing.
+2.	Clients did not print their ticket database and remaining balance when exited - We will add a function to print the client's ticket database and balance before closing the connection.
+Update main() Function
+We need to add a delay or a wait mechanism before closing the UDP connection to allow pending scalping requests to be processed, and also print out the ticket database and remaining balance.
+def main():
+    client_id = input("Enter this client's unique identifier (e.g., Client1): ")  # Unique identifier for this client
+    user_balance = [4000]  # Using a list to maintain reference
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially set
+    # Initialize UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Set a short timeout for responsiveness
+    logging.debug(f"Client bound UDP socket to port {udp_port}")
+    # Initialize TCP connection and handle buy/sell requests
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established with server.")
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete, client_id, other_client_address)
+    # Delay after all transactions are done but before closing sockets to allow handling of late scalping requests
+    time.sleep(180)  # Wait for 3 minutes for any late scalping transactions
+    stop_event.set()
+    udp_thread.join()
+    logging.info("UDP connection properly closed.")
+    # Print the remaining ticket database and balance
+    print(f"Final Ticket Database: {ticket_db}")
+    print(f"Remaining Balance: ${user_balance[0]}")
+    # Close TCP connection afterwards
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+Ensure Proper Handling of Late Scalping Transactions
+The delay inserted before shutting down the UDP thread will ensure that the client remains responsive to incoming scalping requests for a specified period. Adjust the time.sleep(180) duration as needed based on the expected latency or delay in receiving scalping requests.
+This implementation addresses the two issues: it ensures the client remains available for late scalping requests and properly logs the final state of the ticket database and balance before the application shuts down.</t>
+  </si>
+  <si>
+    <t>The clients successfully print out the ticket database and their remaining balance at the end. However, there is problem occurred during the scalping transaction:
+•	Buyer was not able to receive the scaled ticket. 
+Here is the related function:
+- Function udp_listener():
+- Function handle_udp_message():
+- Function become_scalper():
+Please update these functions if necessary to address this error, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>To address the issue where the buyer is not able to receive the scalped ticket despite messages being sent correctly, we need to verify a few things:
+1.	Ensure that message formatting is correct and consistent.
+2.	Ensure that the buyer properly interprets and processes the received scalped ticket information.
+Debugging and Modifications
+1. Message Formatting in become_scalper and handle_udp_message:
+•	Make sure that the messages sent by the scalper are formatted consistently with how they are expected to be split and processed in the handle_udp_message.
+•	In the become_scalper function, ensure that messages have the client ID prefixed correctly and are sent to the correct UDP address.
+2. Correct Interpretation of Messages in handle_udp_message:
+•	Verify that when a buyer receives a message with a ticket number and price, it is parsed correctly, and the database and balance are updated accordingly.
+Code Modifications
+Let's make sure that the message parsing and sending are aligned and correctly implemented.
+Modification in handle_udp_message:
+def handle_udp_message(message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete, client_id):
+    """ Processes received messages via UDP and performs actions based on the message type. """
+    parts = message.split()
+    command = parts[0]
+    if command == "SCALP":
+        # This client is the scalper and should respond to a scalping request
+        buyer_balance = int(parts[1])
+        if ticket_db:
+            ticket_number, ticket_price = min(ticket_db.items(), key=lambda x: x[1])
+            doubled_price = 2 * ticket_price
+            if buyer_balance &gt;= doubled_price:
+                response = f"{ticket_number} {doubled_price}"
+                response_with_id = f"{client_id}:{response}"
+                udp_socket.sendto(response_with_id.encode(), addr)
+                del ticket_db[ticket_number]
+                user_balance[0] += doubled_price
+                logging.debug(f"Scalped ticket {ticket_number} sold for {doubled_price}")
+            else:
+                response_with_id = f"{client_id}:NOMONEY"
+                udp_socket.sendto(response_with_id.encode(), addr)
+                logging.debug("Sent NOMONEY to buyer due to insufficient funds")
+        else:
+            response_with_id = f"{client_id}:Scalper is sold-out"
+            udp_socket.sendto(response_with_id.encode(), addr)
+            logging.debug("No tickets available to scalp")
+    elif parts[0].isdigit() and len(parts) == 2:
+        ticket_number, ticket_price = parts
+        ticket_price = int(ticket_price)
+        ticket_db[ticket_number] = ticket_price
+        user_balance[0] -= ticket_price
+        logging.debug(f"Bought scalped ticket {ticket_number} for {ticket_price}")
+        transaction_complete.set()
+    elif message == "NOMONEY":
+        if ticket_db:
+            sell_ticket(tcp_socket, ticket_db, user_balance)
+        transaction_complete.set()
+    else:
+        logging.debug(f"Received unexpected message: {message}")
+Modification in become_scalper:
+Ensure that the message format is consistent with what is expected in handle_udp_message
+def become_scalper(user_balance, udp_socket, client_id, other_client_address):
+    """ Initiates scalping transaction due to SOLDOUT, including client identifier in the message. """
+    message = f"{client_id}:SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info(f"Client initiated scalping transaction due to SOLDOUT. Sent: {message}")
+Additional Notes
+•	Make sure that the buyer's and scalper's addresses are correctly configured and that the UDP socket is listening and sending to the correct addresses.
+•	Verify that the UDP socket does not close prematurely, ensuring that it can receive all pending messages before closure.
+These modifications and checks should help ensure that the scalped tickets are correctly processed and the transactions are completed as expected.</t>
+  </si>
+  <si>
+    <t>The updated code did not make any changes. Client 2 still cannot receive the scalper response.
+Here is the related function:
+- Function udp_listener():
+- Function handle_udp_message():
+- Function send_requests_to_server():
+- Function become_scalper():
+- Function main():
+Please update these functions if necessary to address this error, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>The problem you're facing where Client 2 cannot receive the scalped ticket from Client 1 might be due to several potential issues with message handling or network delays. Given the correct implementation of the sender ID checks and message responses, one area we can improve is ensuring that the UDP connection remains open long enough and that the message formats are properly recognized and processed by both clients. Here are a few adjustments to ensure that:
+1.	Ensure the UDP listener runs long enough to receive all incoming messages before shutting down.
+2.	Make sure that when messages are sent, they are properly formatted and recognized by the receiving client.
+Let’s enhance the udp_listener function to add more robust handling and logging for troubleshooting:
+udp_listener Function Enhancement
+This modification ensures it checks message integrity more robustly and logs essential information for debugging:
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if ':' in message:  # Ensure delimiter is present
+                        sender_id, actual_message = message.split(':', 1)  # Split message to get the sender's ID
+                        print(f"Received via UDP from {sender_id} at {addr} to {client_id}: {actual_message}")
+                        if sender_id != client_id:  # Process only messages from other clients
+                            logging.debug(f"Received from {sender_id} at {addr}: {actual_message}")
+                            handle_udp_message(actual_message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete, client_id)
+                            last_message_time = time.time()
+                        else:
+                            logging.debug(f"Ignored own message from {client_id}")
+                    else:
+                        logging.error(f"Malformed message received: {message}")
+            except socket.timeout:
+                if time.time() - last_message_time &gt; 180:  # Timeout after 3 minutes of inactivity
+                    logging.debug("No UDP activity for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"UDP data processing error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+Main Function Adjustment
+Ensure the main function includes a proper wait mechanism after all transactions are complete to allow any late incoming scalping requests to be processed:
+def main():
+    client_id = input("Enter this client's unique identifier (e.g., Client1): ")
+    user_balance = [4000]  # Use a list to maintain a mutable integer
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially allow processing
+    # Set up the UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind((hostname, udp_port))
+    udp_socket.settimeout(1.0)  # Responsive timeout
+    # Set up the TCP connection
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect((hostname, tcp_port))
+    logging.debug("TCP connection established.")
+    # Start UDP listening in a separate thread
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id))
+    udp_thread.start()
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete, client_id, other_client_address)
+    time.sleep(180)  # Allow time for any late UDP messages after transactions
+    stop_event.set()
+    udp_thread.join()
+    # Output the final ticket database and remaining balance
+    print(f"Final Ticket Database: {ticket_db}")
+    print(f"Remaining Balance: ${user_balance[0]}")
+    tcp_socket.close()
+    logging.info("TCP connection closed.")
+    udp_socket.close()
+    logging.info("UDP connection properly closed.")
+These adjustments ensure that the UDP listener remains active for a sufficient period after transactions have ostensibly completed, allowing for the handling of late incoming messages, such as those in a delayed scalping transaction.</t>
+  </si>
+  <si>
+    <t>There is still an error in the communication between 2 clients via UDP. 
+•	Client 2 sent the scalping request to Client 1. Client 1 sent the response to the scalping request of Client 2, but Client 2 never received it. Here is a screenshot of Client 1:  
+Here is a screenshot showing Client 2 never received Client 1’s response:
+Here are the related functions:
+- Function udp_listener():
+- Function handle_udp_message():
+- Function send_requests_to_server():
+- Function main(): 
+I also included the smaller functions that are used in the function send_requests_to_server() below. 
+- Function sell_ticket():
+- Function become_scalper():
+Please update these functions if necessary to address this error, and do not change anything else.</t>
+  </si>
+  <si>
+    <t>To ensure that Client 2 successfully receives the scalping response from Client 1, we need to verify the address and port that the responses are sent to. It appears that there may be a mismatch or the correct client address isn't being targeted for responses. Here's a focused update to ensure the responses are directed correctly.
+Revised become_scalper function: This function should ensure the message is sent to the correct other client's address, which needs to be specified elsewhere in your code and passed correctly.
+def become_scalper(user_balance, udp_socket, client_id, other_client_address):
+    """ Initiates scalping transaction due to SOLDOUT, including client identifier in the message. """
+    message = f"{client_id}:SCALP {user_balance[0]}"
+    udp_socket.sendto(message.encode(), other_client_address)
+    logging.info(f"Client initiated scalping transaction due to SOLDOUT. Sent: {message}")
+Check the other_client_address setup: Ensure that other_client_address is dynamically set to refer to the correct client's address and port. It seems that messages might be sent to the wrong or a non-listening port. If both clients are on the same machine for testing, ensure that they are configured to use different ports or that the address routing is handled distinctly.
+UDP Listener Debugging: Add detailed debugging to the udp_listener function to trace addresses and messages more accurately.
+def udp_listener(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id):
+    """ Listens for messages on the UDP socket and handles scalping requests. """
+    last_message_time = time.time()
+    try:
+        while not stop_event.is_set():
+            try:
+                data, addr = udp_socket.recvfrom(1024)
+                if data:
+                    message = data.decode()
+                    if ':' in message:
+                        sender_id, actual_message = message.split(':', 1)
+                        if sender_id != client_id:
+                            logging.debug(f"Received from {sender_id} at {addr}: {actual_message}")
+                            handle_udp_message(actual_message, udp_socket, ticket_db, user_balance, addr, tcp_socket, transaction_complete, client_id)
+                            last_message_time = time.time()
+                        else:
+                            logging.debug(f"Ignored own message from {client_id}")
+                    else:
+                        logging.error(f"Malformed message received: {message}")
+            except socket.timeout:
+                if time.time() - last_message_time &gt; 180:
+                    logging.debug("No UDP activity for 3 minutes, considering transactions complete.")
+                    break
+            except Exception as e:
+                logging.error(f"UDP data processing error: {e}")
+    finally:
+        udp_socket.close()
+        logging.info("UDP connection closed.")
+Configuration Check: Make sure that other_client_address in your main function or where it is set up initially is correctly pointing to the respective other client. If this address is incorrect or not properly set, messages will not be received.
+Simulation Environment: If testing on the same machine, consider using different ports for each client instance or ensure that any NAT or network configurations do not block or misroute the UDP packets.
+By adjusting these areas, especially ensuring the correct handling of client addresses, you should see improvement in the communication between the clients.</t>
+  </si>
+  <si>
+    <t>The problem is that both clients are binding to the same port. We need to change that in the program. Each client has a unique ID based on user input, let's use that to create different ports for them.</t>
+  </si>
+  <si>
+    <t>That's a good approach to ensure that each client binds to a unique port when both are running on the same machine. You can use the unique client ID provided by the user to derive unique port numbers for each client. Here's how you can modify the program to assign unique ports based on the client ID:
+Step 1: Assign Unique Ports Based on Client ID
+You can convert the client ID into a hash or directly use it if it's numeric to determine the unique port numbers. Here’s an example assuming client IDs are simple numbers:
+def main():
+    client_id = input("Enter this client's unique identifier (e.g., 1 or 2): ")
+    base_udp_port = 12345  # Base port number
+    udp_port = base_udp_port + int(client_id)  # Unique port for each client
+    user_balance = [4000]  # Using a list to maintain a mutable integer
+    ticket_db = {}
+    stop_event = threading.Event()
+    transaction_complete = threading.Event()
+    transaction_complete.set()  # Initially set
+    # Set up the UDP socket
+    udp_socket = socket.socket(socket.AF_INET, socket.SOCK_DGRAM)
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEADDR, 1)
+    udp_socket.bind(('localhost', udp_port))
+    udp_socket.settimeout(1.0)  # Responsive timeout
+    # Identify the other client's address and port
+    other_client_id = "2" if client_id == "1" else "1"
+    other_udp_port = base_udp_port + int(other_client_id)
+    other_client_address = ('localhost', other_udp_port)
+    logging.debug(f"Client {client_id} bound UDP socket to port {udp_port}")
+    # Set up the TCP connection (assuming TCP port is common and predefined)
+    tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+    tcp_socket.connect(('localhost', common_tcp_port))
+    logging.debug("TCP connection established.")
+    # Start the UDP listening thread
+    udp_thread = threading.Thread(target=udp_listener, args=(udp_socket, stop_event, ticket_db, user_balance, tcp_socket, transaction_complete, client_id))
+    udp_thread.start()
+    # Proceed with sending requests to the server
+    send_requests_to_server(tcp_socket, udp_socket, ticket_db, user_balance, transaction_complete, client_id, other_client_address)
+    # Wait and then close connections
+    time.sleep(180)  # Allow time for any late UDP messages
+    stop_event.set()
+    udp_thread.join()
+    udp_socket.close()
+    tcp_socket.close()
+    logging.info("Connections properly closed.")
+    print(f"Final Ticket Database: {ticket_db}")
+    print(f"Remaining Balance: ${user_balance[0]}")
+Step 2: Update Functions for Sending and Receiving Messages
+Make sure that when you send messages from one client to another, you're addressing them to the correct port based on the derived unique ports.
+Notes:
+This approach assumes that the client IDs are simple and sequential, such as "1" and "2". If client IDs are more complex, you might need to hash them into a range that can be mapped to port numbers.
+Ensure the chosen port numbers do not conflict with other services on your machine.
+Always handle exceptions and errors gracefully, especially in network programming where resources need to be freed properly (closing sockets).
+By implementing these changes, each client instance will bind to and listen on its own unique port, which should resolve the issues with message handling in your UDP-based client interaction.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Fixed(same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. Fixed: UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. Fixed: Error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.
+21. Fixed: Error in received message via UDP: ERROR - Malformed message received: NOMONEY
+22. Fixed: Did not log messages sent via TCP.
+23. Fixed: ERROR - Error processing UDP data: handle_udp_message() missing 1 required positional argument: 'client_id'.
+24. Fixed: Client 1 finished 15 buy queries with the server and logged out, while Client 2 just received a SOLDOUT message from the server, so Client 2 initiated the scalping request to Client 1. Since Client 1 already logged out, the scalping request was never processed, leaving Client 2 waiting. 
+25. Fixed: Clients did not print their ticket database and remaining balance when exited.
+26. Fixed: Buyer was not able to receive the scalped ticket. Scalped ticket is not processed properly by buyer, leading to idling on the buyer’s side.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. Fixed: UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. Fixed: Error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.
+21. Fixed: Error in received message via UDP: ERROR - Malformed message received: NOMONEY
+22. Fixed: Did not log messages sent via TCP.
+23. Fixed: ERROR - Error processing UDP data: handle_udp_message() missing 1 required positional argument: 'client_id'.
+24. Fixed in client-0-36.py: Client 1 finished 15 buy queries with the server and logged out, while Client 2 just received a SOLDOUT message from the server, so Client 2 initiated the scalping request to Client 1. Since Client 1 already logged out, the scalping request was never processed, leaving Client 2 waiting. 
+25. Fixed: Clients did not print their ticket database and remaining balance when exited.
+26. Buyer was not able to receive the scalped ticket. Scalped ticket is not processed properly by buyer, leading to idling on the buyer’s side.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. Fixed: UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. Fixed: Error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.
+21. Fixed: Error in received message via UDP: ERROR - Malformed message received: NOMONEY
+22. Fixed: Did not log messages sent via TCP.
+23. Fixed: ERROR - Error processing UDP data: handle_udp_message() missing 1 required positional argument: 'client_id'.
+24. FIxed in client-0-36.py: Client 1 finished 15 buy queries with the server and logged out, while Client 2 just received a SOLDOUT message from the server, so Client 2 initiated the scalping request to Client 1. Since Client 1 already logged out, the scalping request was never processed, leaving Client 2 waiting. 
+25. Fixed: Clients did not print their ticket database and remaining balance when exited.
+26. Buyer was not able to receive the scalped ticket. Scalped ticket is not processed properly by buyer, leading to idling on the buyer’s side.</t>
+  </si>
+  <si>
+    <t>1. Fixed given the server-0-7 as input: The server did not wait for both clients to connect before 
+selling ticket.
+2. Fixed in client-0-16.py: Client 1 finished first and exited, the server exited, and Client 2 was still idling indefinitely. --&gt; The issue is not on the server side. The issue is related to error 4, when one of the last clients closed the TCP connection, but still waiting for the UDP thread to finish.  In client-0-13.py both clients were waiting for the UDP listener to finish and never closed the connection.  In client-0-14.py, both clients were still waiting for the thread handling UDP to join, and they end up idling indefinitely.  In client-0-15.py: One of the clients opened a UDP connection but it got timed out too quickly so the client closed the UDP connection, while the second client joined later and opened the UDP connection but no one was connected via UDP.  
+3. Not fixed: In a message containing the ticket ID and price, the server sent: "1000 3411000 341", causing an error of too many values to unpack. --&gt; Did not happen again
+4. Fixed in UDP connection: client-0-6.py", line 29, in udp_listener    udp_sock.bind((hostname, udp_port)) OSError: [WinError 10048] Only one usage of each socket address (protocol/network address/port) is normally permitted
+5. Fixed: The server program lost some of the original requirements that were already implemented in previous version. Ex: The server did not print the initial database when starting out. The server did not wait for both clients to exit before closing down connections (fixed in exp 0-7).
+6. Fixed: Missing a condition to handle NOFUNDS, when the client does not have enough money to buy a ticket.
+7. Fixed: Error: “client-0-11.py", line 31, in main
+    udp_socket.setsockopt(socket.SOL_SOCKET, socket.SO_REUSEPORT, 1)
+AttributeError: module 'socket' has no attribute 'SO_REUSEPORT' 
+8. Fixed: The client-0-12.py program lost the required functionalities that were already implemented in clien-0-6.py.  
+9. Fixed: The condition to become a scalper was incorrect. No action was specified in the become_scalper function, when the buyer should have sent a scalping request and the scalper should have handled it accordingly.
+10. Fixed:  The logic of comparing the scalper’s balance with the doubled ticket price is incorrect. The scalper is supposed to compare the buyer’s balance, which came with the scalping request message, to the doubled ticket price. 
+11. Fixed: TCP connection is supposed to close after the UDP connection is closed. The UDP connection is closed after no message is sent or received for a while, maybe after 3 minutes.
+12. Fixed: error: udp_socket is underfined in the send_requests_to_server function.
+13. Fixed: Missing a condition to handle when the buyer receives a NOMONEY message from the scalper. 
+14. Fixed: Missing condition to cover NOMONEY in the handle_udp_message function.
+15. Not fixed (same error in client-0-28.py):  The client who sends a SCALP request to the scalper (the other client) is also the one who receives the scalp request via UDP. This is incorrect since the SCALP request that the buyer sent should be received by the scalper (the other client). 
+16. Fixed: While a client (the buyer) initiates a scalping request to the other client (the scalper), the other thread that is handling sending buy requests to the server must wait until the scalping transaction is completed, which is when the scalper sends a response to the buyer. 
+17. Fixed: Both clients waited for the signal of the completed scalping transaction before sending out the second buy request to the server. There was no scalping transaction at that point, so both clients were waiting indefinitely.
+18.  Fixed: Client A finished the transaction with the server and received the scalping request from client B. But then, client A closed the UDP connection before handling the scalping request from client B, leaving client B waiting. Client A was supposed to finish the scalping transaction with client B until no more exchanged messages via the UDP connection after a period of time (say 3 minutes), then Client A could close the connection.
+19. Fixed: UDP closed after 3 minutes idling but the TCP connection is still on since the clients have not completed the 15 buy requests to the server yet.
+20. Fixed: Error in parsing UDP message: ERROR - Error processing UDP data: not enough values to unpack (expected 2, got 1). --&gt; Identified that the message received was not properly formatted: ERROR - Malformed message received: SCALP 203.
+21. Fixed: Error in received message via UDP: ERROR - Malformed message received: NOMONEY
+22. Fixed: Did not log messages sent via TCP.
+23. Fixed: ERROR - Error processing UDP data: handle_udp_message() missing 1 required positional argument: 'client_id'.
+24. Fixed in client-0-36.pyClient 1 finished 15 buy queries with the server and logged out, while Client 2 just received a SOLDOUT message from the server, so Client 2 initiated the scalping request to Client 1. Since Client 1 already logged out, the scalping request was never processed, leaving Client 2 waiting. 
+25. Fixed: Clients did not print their ticket database and remaining balance when exited.
+26. Buyer was not able to receive the scalped ticket. Scalped ticket is not processed properly by buyer, leading to idling on the buyer’s side.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +5528,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1025,10 +5556,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,24 +5878,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E39F754-1327-4C31-8156-C5B4C2CFB3FA}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="69.42578125" customWidth="1"/>
+    <col min="9" max="9" width="80.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1562,7 +6096,7 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1649,11 +6183,813 @@
       <c r="H11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
